--- a/05. 데이터베이스_설계서.xlsx
+++ b/05. 데이터베이스_설계서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="제∙개정 이력서" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="242">
   <si>
     <t>내용</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -592,38 +592,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>member</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>memo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>document</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>reply</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupjoin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hashtag</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>member_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -840,10 +808,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>note</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>note_no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -896,10 +860,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>groupinvite</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>invite_date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -924,10 +884,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alert</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar2(500)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -952,14 +908,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alert</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>note</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>member(member_id)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -973,13 +921,152 @@
   </si>
   <si>
     <t>누락된 테이블 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnd_memo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnd_photo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnd_reply</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnd_groupjoin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnd_hashtag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnd_note</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnd_groupinvite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnd_alert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnd_group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnd_document</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Null</t>
+  </si>
+  <si>
+    <t>Not Null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키 생성할 것!</t>
+  </si>
+  <si>
+    <t>Not Null,
+제약조건, 기본값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table bnd_member(
+member_id      varchar2(30) primary key
+,member_pw      varchar2(30) Not Null
+,member_name  varchar2(30) Not Null
+,member_mail  varchar2(30) Not Null
+,member_photo  varchar2(40) 
+,member_phone  varchar2(13) 
+,member_birthday date      Not Null
+,member_married  number(1)     default 0
+,member_weddingday date 
+,member_regdate  date      default sysdate
+,member_lastlogin date 
+,member_wdraw  number(1)     default 0    
+);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table bnd_group(
+group_no  number  primary key
+,group_category varchar2(30) Not Null 
+,group_subcategory varchar2(50) 
+,group_name varchar2(100) Not Null
+,group_regdate date  sysdate
+,group_code varchar2(5) 
+,group_codedate date  sysdate);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>group(group_no)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnd_member</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnd_member</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnd_group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnd_document</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnd_groupinvite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnd_note</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -1115,7 +1202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1533,6 +1620,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1540,7 +1636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1627,6 +1723,12 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1636,168 +1738,195 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2227,7 +2356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
@@ -2250,14 +2379,14 @@
       <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="21">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6" ht="18" thickBot="1">
       <c r="A3" s="11"/>
@@ -2280,161 +2409,171 @@
       <c r="D4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="39"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A5" s="8" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="F5" s="40"/>
+        <v>178</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A6" s="6" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="F6" s="41"/>
+        <v>178</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A7" s="6"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A9" s="6"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A11" s="6"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A12" s="6"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A13" s="6"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A14" s="6"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A15" s="6"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A16" s="6"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A17" s="6"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A18" s="6"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A19" s="6"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="16.2" thickBot="1">
       <c r="A20" s="4"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
@@ -2443,16 +2582,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2467,10 +2596,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J205"/>
+  <dimension ref="A1:P205"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G146" sqref="G146"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2483,57 +2612,60 @@
     <col min="6" max="6" width="8.796875" customWidth="1"/>
     <col min="7" max="7" width="24.19921875" customWidth="1"/>
     <col min="8" max="10" width="7.796875" customWidth="1"/>
+    <col min="12" max="12" width="38.796875" customWidth="1"/>
+    <col min="13" max="13" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="16.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="73"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
       <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="74"/>
+      <c r="G2" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:10" ht="18" thickBot="1">
       <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="76" t="s">
-        <v>187</v>
-      </c>
-      <c r="H3" s="76"/>
+      <c r="G3" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="70"/>
       <c r="I3" s="16" t="s">
         <v>10</v>
       </c>
@@ -2542,172 +2674,172 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
     </row>
     <row r="6" spans="1:10" ht="17.399999999999999">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="80" t="s">
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="82"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="80"/>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62" t="s">
+      <c r="B8" s="63"/>
+      <c r="C8" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="85"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="49"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="49"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="68"/>
+      <c r="E14" s="77"/>
       <c r="F14" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="56"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="44" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="46"/>
+      <c r="H15" s="45"/>
       <c r="I15" s="23"/>
       <c r="J15" s="24"/>
     </row>
@@ -2721,281 +2853,281 @@
       <c r="C16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="66"/>
+      <c r="E16" s="85"/>
       <c r="F16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="66" t="s">
+      <c r="G16" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66" t="s">
+      <c r="H16" s="85"/>
+      <c r="I16" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="66"/>
+      <c r="J16" s="85"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" s="43"/>
+      <c r="D17" s="106" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" s="106"/>
       <c r="F17" s="27"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="43"/>
+      <c r="D18" s="106" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="106"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
-      <c r="D19" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="43"/>
+      <c r="D19" s="106" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="106"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="27"/>
-      <c r="D20" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="43"/>
+      <c r="D20" s="106" t="s">
+        <v>239</v>
+      </c>
+      <c r="E20" s="106"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="43"/>
+      <c r="D21" s="106" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" s="106"/>
       <c r="F21" s="27"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="43"/>
+      <c r="D22" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" s="106"/>
       <c r="F22" s="27"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="43"/>
+      <c r="D23" s="106" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23" s="106"/>
       <c r="F23" s="27"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="43"/>
+      <c r="D24" s="106" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" s="106"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="106" t="s">
         <v>219</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="106"/>
       <c r="F25" s="27"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
-      <c r="D26" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="E26" s="43"/>
+      <c r="D26" s="106" t="s">
+        <v>240</v>
+      </c>
+      <c r="E26" s="106"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="27"/>
-      <c r="D27" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="E27" s="43"/>
+      <c r="D27" s="106" t="s">
+        <v>241</v>
+      </c>
+      <c r="E27" s="106"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="61"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
     </row>
     <row r="30" spans="1:10" ht="17.399999999999999">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
     </row>
     <row r="31" spans="1:10" ht="17.399999999999999">
       <c r="A31" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="63">
+      <c r="B31" s="58">
         <v>1</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="64"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
       <c r="F31" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56"/>
+      <c r="G31" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="62"/>
     </row>
     <row r="32" spans="1:10" ht="17.399999999999999">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="46"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
       <c r="E32" s="22"/>
       <c r="F32" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="56"/>
-    </row>
-    <row r="33" spans="1:10" ht="17.399999999999999">
-      <c r="A33" s="62" t="s">
+      <c r="G32" s="60"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="62"/>
+    </row>
+    <row r="33" spans="1:15" ht="17.399999999999999">
+      <c r="A33" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="49"/>
-    </row>
-    <row r="34" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A34" s="62" t="s">
+      <c r="B33" s="63"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="48"/>
+    </row>
+    <row r="34" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A34" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="49"/>
-    </row>
-    <row r="35" spans="1:10" ht="17.399999999999999">
+      <c r="B34" s="63"/>
+      <c r="C34" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="48"/>
+    </row>
+    <row r="35" spans="1:15" ht="17.399999999999999">
       <c r="A35" s="13" t="s">
         <v>40</v>
       </c>
@@ -3011,150 +3143,205 @@
       <c r="E35" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="44" t="s">
+      <c r="F35" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="46"/>
-    </row>
-    <row r="36" spans="1:10" ht="16.5" customHeight="1">
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="45"/>
+    </row>
+    <row r="36" spans="1:15" ht="16.5" customHeight="1">
       <c r="A36" s="26"/>
       <c r="B36" s="26"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="49"/>
-    </row>
-    <row r="37" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A37" s="50" t="s">
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="48"/>
+    </row>
+    <row r="37" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A37" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" s="50" t="s">
+      <c r="E37" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="F37" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="50" t="s">
+      <c r="G37" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="50" t="s">
+      <c r="H37" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I37" s="50" t="s">
+      <c r="I37" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J37" s="50" t="s">
+      <c r="J37" s="49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="51"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="M37" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N37" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="O37" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="L38" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="M38" s="50"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="50"/>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="12" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="29"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="L39" s="98"/>
+      <c r="M39" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O39" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="12" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="29"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="L40" s="98"/>
+      <c r="M40" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O40" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="12" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="29"/>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="L41" s="98"/>
+      <c r="M41" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O41" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="12" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="29"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="L42" s="98"/>
+      <c r="M42" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="12" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -3162,15 +3349,23 @@
       <c r="H43" s="29"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="L43" s="98"/>
+      <c r="M43" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O43" s="12"/>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="12" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
@@ -3178,33 +3373,51 @@
       <c r="H44" s="29"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="L44" s="98"/>
+      <c r="M44" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="O44" s="12"/>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="12" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="29"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="L45" s="98"/>
+      <c r="M45" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="O45" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
@@ -3214,15 +3427,25 @@
         <v>0</v>
       </c>
       <c r="J46" s="12"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="L46" s="98"/>
+      <c r="M46" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="O46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="12" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -3230,33 +3453,51 @@
       <c r="H47" s="29"/>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="L47" s="98"/>
+      <c r="M47" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="O47" s="12"/>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="29"/>
       <c r="I48" s="12" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J48" s="12"/>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="L48" s="98"/>
+      <c r="M48" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="O48" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="12" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -3264,15 +3505,23 @@
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="L49" s="98"/>
+      <c r="M49" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="O49" s="12"/>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="12" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
@@ -3282,86 +3531,96 @@
         <v>0</v>
       </c>
       <c r="J50" s="12"/>
-    </row>
-    <row r="53" spans="1:10" ht="17.399999999999999">
-      <c r="A53" s="57" t="s">
+      <c r="L50" s="98"/>
+      <c r="M50" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="N50" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="O50" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="17.399999999999999">
+      <c r="A53" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="61"/>
-    </row>
-    <row r="54" spans="1:10" ht="17.399999999999999">
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+    </row>
+    <row r="54" spans="1:15" ht="17.399999999999999">
       <c r="A54" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="63">
+      <c r="B54" s="58">
         <v>2</v>
       </c>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="64"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="59"/>
       <c r="F54" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G54" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="56"/>
-    </row>
-    <row r="55" spans="1:10" ht="17.399999999999999">
-      <c r="A55" s="44" t="s">
+      <c r="G54" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="62"/>
+    </row>
+    <row r="55" spans="1:15" ht="17.399999999999999">
+      <c r="A55" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="46"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
       <c r="E55" s="22"/>
       <c r="F55" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G55" s="54"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="56"/>
-    </row>
-    <row r="56" spans="1:10" ht="17.399999999999999">
-      <c r="A56" s="62" t="s">
+      <c r="G55" s="60"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="62"/>
+    </row>
+    <row r="56" spans="1:15" ht="17.399999999999999">
+      <c r="A56" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="62"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="49"/>
-    </row>
-    <row r="57" spans="1:10" ht="17.399999999999999">
-      <c r="A57" s="62" t="s">
+      <c r="B56" s="63"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="48"/>
+    </row>
+    <row r="57" spans="1:15" ht="17.399999999999999">
+      <c r="A57" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="62"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="49"/>
-    </row>
-    <row r="58" spans="1:10" ht="17.399999999999999">
+      <c r="B57" s="63"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="48"/>
+    </row>
+    <row r="58" spans="1:15" ht="17.399999999999999">
       <c r="A58" s="31" t="s">
         <v>40</v>
       </c>
@@ -3377,132 +3636,174 @@
       <c r="E58" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F58" s="44" t="s">
+      <c r="F58" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="46"/>
-    </row>
-    <row r="59" spans="1:10" ht="17.399999999999999">
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="45"/>
+    </row>
+    <row r="59" spans="1:15" ht="17.399999999999999">
       <c r="A59" s="26"/>
       <c r="B59" s="26"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
       <c r="E59" s="20"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="49"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="50" t="s">
+      <c r="F59" s="46"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="48"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D60" s="52" t="s">
+      <c r="D60" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E60" s="50" t="s">
+      <c r="E60" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F60" s="50" t="s">
+      <c r="F60" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G60" s="50" t="s">
+      <c r="G60" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H60" s="50" t="s">
+      <c r="H60" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I60" s="50" t="s">
+      <c r="I60" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J60" s="50" t="s">
+      <c r="J60" s="49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="51"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="51"/>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="L60" t="s">
+        <v>230</v>
+      </c>
+      <c r="M60" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N60" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="O60" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="L61" s="98"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="50"/>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="12" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G62" s="12"/>
       <c r="H62" s="29"/>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="L62" s="98"/>
+      <c r="M62" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="N62" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="O62" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="12" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H63" s="29"/>
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="L63" s="98"/>
+      <c r="M63" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="N63" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O63" s="12"/>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="12" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
       <c r="G64" s="12" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H64" s="29"/>
       <c r="I64" s="12"/>
       <c r="J64" s="12"/>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="L64" s="98"/>
+      <c r="M64" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="N64" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O64" s="12"/>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="12" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
@@ -3510,86 +3811,94 @@
       <c r="H65" s="29"/>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
-    </row>
-    <row r="68" spans="1:10" ht="17.399999999999999">
-      <c r="A68" s="57" t="s">
+      <c r="L65" s="98"/>
+      <c r="M65" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="N65" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O65" s="12"/>
+    </row>
+    <row r="68" spans="1:15" ht="17.399999999999999">
+      <c r="A68" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="61"/>
-      <c r="J68" s="61"/>
-    </row>
-    <row r="69" spans="1:10" ht="17.399999999999999">
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="57"/>
+    </row>
+    <row r="69" spans="1:15" ht="17.399999999999999">
       <c r="A69" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="63">
+      <c r="B69" s="58">
         <v>3</v>
       </c>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="64"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="59"/>
       <c r="F69" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G69" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="H69" s="55"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="56"/>
-    </row>
-    <row r="70" spans="1:10" ht="17.399999999999999">
-      <c r="A70" s="44" t="s">
+      <c r="G69" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="H69" s="61"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="62"/>
+    </row>
+    <row r="70" spans="1:15" ht="17.399999999999999">
+      <c r="A70" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B70" s="46"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
       <c r="E70" s="22"/>
       <c r="F70" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G70" s="54"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="56"/>
-    </row>
-    <row r="71" spans="1:10" ht="17.399999999999999">
-      <c r="A71" s="62" t="s">
+      <c r="G70" s="60"/>
+      <c r="H70" s="61"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="62"/>
+    </row>
+    <row r="71" spans="1:15" ht="17.399999999999999">
+      <c r="A71" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B71" s="62"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="49"/>
-    </row>
-    <row r="72" spans="1:10" ht="17.399999999999999">
-      <c r="A72" s="62" t="s">
+      <c r="B71" s="63"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="48"/>
+    </row>
+    <row r="72" spans="1:15" ht="17.399999999999999">
+      <c r="A72" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="62"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="49"/>
-    </row>
-    <row r="73" spans="1:10" ht="17.399999999999999">
+      <c r="B72" s="63"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="48"/>
+    </row>
+    <row r="73" spans="1:15" ht="17.399999999999999">
       <c r="A73" s="31" t="s">
         <v>40</v>
       </c>
@@ -3605,114 +3914,149 @@
       <c r="E73" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F73" s="44" t="s">
+      <c r="F73" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
-      <c r="J73" s="46"/>
-    </row>
-    <row r="74" spans="1:10" ht="17.399999999999999">
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="45"/>
+    </row>
+    <row r="74" spans="1:15" ht="17.399999999999999">
       <c r="A74" s="26"/>
       <c r="B74" s="26"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
       <c r="E74" s="20"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="48"/>
-      <c r="I74" s="48"/>
-      <c r="J74" s="49"/>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="50" t="s">
+      <c r="F74" s="46"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="48"/>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B75" s="50" t="s">
+      <c r="B75" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C75" s="50" t="s">
+      <c r="C75" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="52" t="s">
+      <c r="D75" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" s="50" t="s">
+      <c r="E75" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="F75" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G75" s="50" t="s">
+      <c r="G75" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H75" s="50" t="s">
+      <c r="H75" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I75" s="50" t="s">
+      <c r="I75" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J75" s="50" t="s">
+      <c r="J75" s="49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="51"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="51"/>
-      <c r="J76" s="51"/>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="M75" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N75" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="O75" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="50"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
+      <c r="L76" s="102" t="s">
+        <v>234</v>
+      </c>
+      <c r="M76" s="50"/>
+      <c r="N76" s="52"/>
+      <c r="O76" s="50"/>
+    </row>
+    <row r="77" spans="1:15" ht="14.4" customHeight="1">
       <c r="A77" s="12" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G77" s="12"/>
       <c r="H77" s="29"/>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="L77" s="102"/>
+      <c r="M77" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="N77" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="O77" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="12" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
       <c r="H78" s="29"/>
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="L78" s="102"/>
+      <c r="M78" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="N78" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O78" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="12" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
@@ -3720,51 +4064,79 @@
       <c r="H79" s="29"/>
       <c r="I79" s="12"/>
       <c r="J79" s="12"/>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="L79" s="102"/>
+      <c r="M79" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="N79" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="O79" s="12"/>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="12" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
       <c r="H80" s="29"/>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="L80" s="102"/>
+      <c r="M80" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="N80" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="O80" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" s="12" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
       <c r="H81" s="29"/>
       <c r="I81" s="12" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J81" s="12"/>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="L81" s="102"/>
+      <c r="M81" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="N81" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="O81" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" s="12" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
@@ -3772,104 +4144,122 @@
       <c r="H82" s="29"/>
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="L82" s="102"/>
+      <c r="M82" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="N82" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="O82" s="12"/>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" s="12" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
       <c r="H83" s="29"/>
       <c r="I83" s="12" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="J83" s="12"/>
-    </row>
-    <row r="86" spans="1:10" ht="17.399999999999999">
-      <c r="A86" s="57" t="s">
+      <c r="L83" s="102"/>
+      <c r="M83" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="N83" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="O83" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="17.399999999999999">
+      <c r="A86" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B86" s="58"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="61"/>
-      <c r="I86" s="61"/>
-      <c r="J86" s="61"/>
-    </row>
-    <row r="87" spans="1:10" ht="17.399999999999999">
+      <c r="B86" s="54"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="57"/>
+    </row>
+    <row r="87" spans="1:16" ht="17.399999999999999">
       <c r="A87" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="63">
+      <c r="B87" s="58">
         <v>4</v>
       </c>
-      <c r="C87" s="63"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="64"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="59"/>
       <c r="F87" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G87" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="H87" s="55"/>
-      <c r="I87" s="55"/>
-      <c r="J87" s="56"/>
-    </row>
-    <row r="88" spans="1:10" ht="17.399999999999999">
-      <c r="A88" s="44" t="s">
+      <c r="G87" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="62"/>
+    </row>
+    <row r="88" spans="1:16" ht="17.399999999999999">
+      <c r="A88" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B88" s="46"/>
+      <c r="B88" s="45"/>
       <c r="C88" s="21"/>
       <c r="D88" s="21"/>
       <c r="E88" s="22"/>
       <c r="F88" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G88" s="54"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="55"/>
-      <c r="J88" s="56"/>
-    </row>
-    <row r="89" spans="1:10" ht="17.399999999999999">
-      <c r="A89" s="62" t="s">
+      <c r="G88" s="60"/>
+      <c r="H88" s="61"/>
+      <c r="I88" s="61"/>
+      <c r="J88" s="62"/>
+    </row>
+    <row r="89" spans="1:16" ht="17.399999999999999">
+      <c r="A89" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B89" s="62"/>
-      <c r="C89" s="47"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="48"/>
-      <c r="F89" s="48"/>
-      <c r="G89" s="48"/>
-      <c r="H89" s="48"/>
-      <c r="I89" s="48"/>
-      <c r="J89" s="49"/>
-    </row>
-    <row r="90" spans="1:10" ht="17.399999999999999">
-      <c r="A90" s="62" t="s">
+      <c r="B89" s="63"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="47"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="48"/>
+    </row>
+    <row r="90" spans="1:16" ht="17.399999999999999">
+      <c r="A90" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B90" s="62"/>
-      <c r="C90" s="47"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="48"/>
-      <c r="H90" s="48"/>
-      <c r="I90" s="48"/>
-      <c r="J90" s="49"/>
-    </row>
-    <row r="91" spans="1:10" ht="17.399999999999999">
+      <c r="B90" s="63"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="47"/>
+      <c r="F90" s="47"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="47"/>
+      <c r="I90" s="47"/>
+      <c r="J90" s="48"/>
+    </row>
+    <row r="91" spans="1:16" ht="17.399999999999999">
       <c r="A91" s="31" t="s">
         <v>40</v>
       </c>
@@ -3885,275 +4275,364 @@
       <c r="E91" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F91" s="44" t="s">
+      <c r="F91" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G91" s="45"/>
-      <c r="H91" s="45"/>
-      <c r="I91" s="45"/>
-      <c r="J91" s="46"/>
-    </row>
-    <row r="92" spans="1:10" ht="17.399999999999999">
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="45"/>
+    </row>
+    <row r="92" spans="1:16" ht="17.399999999999999" customHeight="1">
       <c r="A92" s="26"/>
       <c r="B92" s="26"/>
       <c r="C92" s="27"/>
       <c r="D92" s="27"/>
       <c r="E92" s="20"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="49"/>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="50" t="s">
+      <c r="F92" s="46"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="48"/>
+      <c r="L92" s="96"/>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B93" s="50" t="s">
+      <c r="B93" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C93" s="50" t="s">
+      <c r="C93" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D93" s="52" t="s">
+      <c r="D93" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E93" s="50" t="s">
+      <c r="E93" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F93" s="50" t="s">
+      <c r="F93" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G93" s="50" t="s">
+      <c r="G93" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H93" s="50" t="s">
+      <c r="H93" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I93" s="50" t="s">
+      <c r="I93" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J93" s="50" t="s">
+      <c r="J93" s="49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" s="51"/>
-      <c r="B94" s="51"/>
-      <c r="C94" s="51"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="51"/>
-      <c r="F94" s="51"/>
-      <c r="G94" s="51"/>
-      <c r="H94" s="51"/>
-      <c r="I94" s="51"/>
-      <c r="J94" s="51"/>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="L93" t="s">
+        <v>230</v>
+      </c>
+      <c r="M93" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N93" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="O93" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" s="50"/>
+      <c r="B94" s="50"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="52"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="50"/>
+      <c r="J94" s="50"/>
+      <c r="L94" s="57"/>
+      <c r="M94" s="50"/>
+      <c r="N94" s="52"/>
+      <c r="O94" s="50"/>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" s="12" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
       <c r="D95" s="12" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
       <c r="G95" s="12" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="H95" s="29"/>
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="L95" s="57"/>
+      <c r="M95" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="N95" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="O95" s="12"/>
+      <c r="P95" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" s="12" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
       <c r="D96" s="12" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G96" s="12"/>
       <c r="H96" s="29"/>
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="L96" s="57"/>
+      <c r="M96" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="N96" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="O96" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" s="12" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
       <c r="D97" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
       <c r="G97" s="12" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H97" s="29"/>
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="L97" s="57"/>
+      <c r="M97" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="N97" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O97" s="12"/>
+      <c r="P97" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" s="12" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
       <c r="D98" s="12" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
       <c r="H98" s="29"/>
       <c r="I98" s="12"/>
       <c r="J98" s="12"/>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="L98" s="57"/>
+      <c r="M98" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="N98" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="O98" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" s="12" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
       <c r="D99" s="12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
       <c r="H99" s="29"/>
       <c r="I99" s="12" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J99" s="12"/>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="L99" s="57"/>
+      <c r="M99" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="N99" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="O99" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" s="12" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
       <c r="D100" s="12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
       <c r="H100" s="29"/>
       <c r="I100" s="12" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J100" s="12"/>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="L100" s="57"/>
+      <c r="M100" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="N100" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="O100" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" s="12" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
       <c r="D101" s="12" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
       <c r="H101" s="29"/>
       <c r="I101" s="12"/>
       <c r="J101" s="12"/>
-    </row>
-    <row r="104" spans="1:10" ht="17.399999999999999">
-      <c r="A104" s="57" t="s">
+      <c r="L101" s="57"/>
+      <c r="M101" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="N101" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="O101" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="17.399999999999999">
+      <c r="A104" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B104" s="58"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="58"/>
-      <c r="E104" s="59"/>
-      <c r="F104" s="60"/>
-      <c r="G104" s="61"/>
-      <c r="H104" s="61"/>
-      <c r="I104" s="61"/>
-      <c r="J104" s="61"/>
-    </row>
-    <row r="105" spans="1:10" ht="17.399999999999999">
+      <c r="B104" s="54"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="56"/>
+      <c r="G104" s="57"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="57"/>
+      <c r="J104" s="57"/>
+    </row>
+    <row r="105" spans="1:16" ht="17.399999999999999">
       <c r="A105" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B105" s="63">
+      <c r="B105" s="58">
         <v>5</v>
       </c>
-      <c r="C105" s="63"/>
-      <c r="D105" s="63"/>
-      <c r="E105" s="64"/>
+      <c r="C105" s="58"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="59"/>
       <c r="F105" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G105" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="H105" s="55"/>
-      <c r="I105" s="55"/>
-      <c r="J105" s="56"/>
-    </row>
-    <row r="106" spans="1:10" ht="17.399999999999999">
-      <c r="A106" s="44" t="s">
+      <c r="G105" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="H105" s="61"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="62"/>
+    </row>
+    <row r="106" spans="1:16" ht="17.399999999999999">
+      <c r="A106" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B106" s="46"/>
+      <c r="B106" s="45"/>
       <c r="C106" s="21"/>
       <c r="D106" s="21"/>
       <c r="E106" s="22"/>
       <c r="F106" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G106" s="54"/>
-      <c r="H106" s="55"/>
-      <c r="I106" s="55"/>
-      <c r="J106" s="56"/>
-    </row>
-    <row r="107" spans="1:10" ht="17.399999999999999">
-      <c r="A107" s="62" t="s">
+      <c r="G106" s="60"/>
+      <c r="H106" s="61"/>
+      <c r="I106" s="61"/>
+      <c r="J106" s="62"/>
+    </row>
+    <row r="107" spans="1:16" ht="17.399999999999999">
+      <c r="A107" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B107" s="62"/>
-      <c r="C107" s="47"/>
-      <c r="D107" s="48"/>
-      <c r="E107" s="48"/>
-      <c r="F107" s="48"/>
-      <c r="G107" s="48"/>
-      <c r="H107" s="48"/>
-      <c r="I107" s="48"/>
-      <c r="J107" s="49"/>
-    </row>
-    <row r="108" spans="1:10" ht="17.399999999999999">
-      <c r="A108" s="62" t="s">
+      <c r="B107" s="63"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="47"/>
+      <c r="E107" s="47"/>
+      <c r="F107" s="47"/>
+      <c r="G107" s="47"/>
+      <c r="H107" s="47"/>
+      <c r="I107" s="47"/>
+      <c r="J107" s="48"/>
+    </row>
+    <row r="108" spans="1:16" ht="17.399999999999999">
+      <c r="A108" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B108" s="62"/>
-      <c r="C108" s="47"/>
-      <c r="D108" s="48"/>
-      <c r="E108" s="48"/>
-      <c r="F108" s="48"/>
-      <c r="G108" s="48"/>
-      <c r="H108" s="48"/>
-      <c r="I108" s="48"/>
-      <c r="J108" s="49"/>
-    </row>
-    <row r="109" spans="1:10" ht="17.399999999999999">
+      <c r="B108" s="63"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="47"/>
+      <c r="E108" s="47"/>
+      <c r="F108" s="47"/>
+      <c r="G108" s="47"/>
+      <c r="H108" s="47"/>
+      <c r="I108" s="47"/>
+      <c r="J108" s="48"/>
+    </row>
+    <row r="109" spans="1:16" ht="17.399999999999999">
       <c r="A109" s="31" t="s">
         <v>40</v>
       </c>
@@ -4169,96 +4648,119 @@
       <c r="E109" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F109" s="44" t="s">
+      <c r="F109" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G109" s="45"/>
-      <c r="H109" s="45"/>
-      <c r="I109" s="45"/>
-      <c r="J109" s="46"/>
-    </row>
-    <row r="110" spans="1:10" ht="17.399999999999999">
+      <c r="G109" s="44"/>
+      <c r="H109" s="44"/>
+      <c r="I109" s="44"/>
+      <c r="J109" s="45"/>
+    </row>
+    <row r="110" spans="1:16" ht="17.399999999999999">
       <c r="A110" s="26"/>
       <c r="B110" s="26"/>
       <c r="C110" s="27"/>
       <c r="D110" s="27"/>
       <c r="E110" s="20"/>
-      <c r="F110" s="47"/>
-      <c r="G110" s="48"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="48"/>
-      <c r="J110" s="49"/>
-    </row>
-    <row r="111" spans="1:10">
-      <c r="A111" s="50" t="s">
+      <c r="F110" s="46"/>
+      <c r="G110" s="47"/>
+      <c r="H110" s="47"/>
+      <c r="I110" s="47"/>
+      <c r="J110" s="48"/>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B111" s="50" t="s">
+      <c r="B111" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C111" s="50" t="s">
+      <c r="C111" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D111" s="52" t="s">
+      <c r="D111" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E111" s="50" t="s">
+      <c r="E111" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F111" s="50" t="s">
+      <c r="F111" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G111" s="50" t="s">
+      <c r="G111" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H111" s="50" t="s">
+      <c r="H111" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I111" s="50" t="s">
+      <c r="I111" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J111" s="50" t="s">
+      <c r="J111" s="49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112" s="51"/>
-      <c r="B112" s="51"/>
-      <c r="C112" s="51"/>
-      <c r="D112" s="53"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="51"/>
-      <c r="G112" s="51"/>
-      <c r="H112" s="51"/>
-      <c r="I112" s="51"/>
-      <c r="J112" s="51"/>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="L111" t="s">
+        <v>230</v>
+      </c>
+      <c r="M111" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N111" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="O111" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112" s="50"/>
+      <c r="B112" s="50"/>
+      <c r="C112" s="50"/>
+      <c r="D112" s="52"/>
+      <c r="E112" s="50"/>
+      <c r="F112" s="50"/>
+      <c r="G112" s="50"/>
+      <c r="H112" s="50"/>
+      <c r="I112" s="50"/>
+      <c r="J112" s="50"/>
+      <c r="L112" s="104"/>
+      <c r="M112" s="50"/>
+      <c r="N112" s="52"/>
+      <c r="O112" s="50"/>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" s="12" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
       <c r="D113" s="12" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
       <c r="G113" s="12" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H113" s="29"/>
       <c r="I113" s="12"/>
       <c r="J113" s="12"/>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="L113" s="104"/>
+      <c r="M113" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="N113" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
       <c r="D114" s="12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
@@ -4266,15 +4768,22 @@
       <c r="H114" s="29"/>
       <c r="I114" s="12"/>
       <c r="J114" s="12"/>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="L114" s="104"/>
+      <c r="M114" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="N114" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115" s="12" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
       <c r="D115" s="12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
@@ -4282,104 +4791,121 @@
       <c r="H115" s="29"/>
       <c r="I115" s="12"/>
       <c r="J115" s="12"/>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="L115" s="104"/>
+      <c r="M115" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="N115" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116" s="12" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
       <c r="D116" s="12" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E116" s="12"/>
       <c r="F116" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G116" s="12"/>
       <c r="H116" s="29"/>
       <c r="I116" s="12"/>
       <c r="J116" s="12"/>
-    </row>
-    <row r="119" spans="1:10" ht="17.399999999999999">
-      <c r="A119" s="57" t="s">
+      <c r="L116" s="104"/>
+      <c r="M116" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="N116" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="O116" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="17.399999999999999">
+      <c r="A119" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B119" s="58"/>
-      <c r="C119" s="58"/>
-      <c r="D119" s="58"/>
-      <c r="E119" s="59"/>
-      <c r="F119" s="60"/>
-      <c r="G119" s="61"/>
-      <c r="H119" s="61"/>
-      <c r="I119" s="61"/>
-      <c r="J119" s="61"/>
-    </row>
-    <row r="120" spans="1:10" ht="17.399999999999999">
+      <c r="B119" s="54"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="55"/>
+      <c r="F119" s="56"/>
+      <c r="G119" s="57"/>
+      <c r="H119" s="57"/>
+      <c r="I119" s="57"/>
+      <c r="J119" s="57"/>
+    </row>
+    <row r="120" spans="1:15" ht="17.399999999999999">
       <c r="A120" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B120" s="63">
+      <c r="B120" s="58">
         <v>6</v>
       </c>
-      <c r="C120" s="63"/>
-      <c r="D120" s="63"/>
-      <c r="E120" s="64"/>
+      <c r="C120" s="58"/>
+      <c r="D120" s="58"/>
+      <c r="E120" s="59"/>
       <c r="F120" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G120" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="H120" s="55"/>
-      <c r="I120" s="55"/>
-      <c r="J120" s="56"/>
-    </row>
-    <row r="121" spans="1:10" ht="17.399999999999999">
-      <c r="A121" s="44" t="s">
+      <c r="G120" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="H120" s="61"/>
+      <c r="I120" s="61"/>
+      <c r="J120" s="62"/>
+    </row>
+    <row r="121" spans="1:15" ht="17.399999999999999">
+      <c r="A121" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B121" s="46"/>
+      <c r="B121" s="45"/>
       <c r="C121" s="21"/>
       <c r="D121" s="21"/>
       <c r="E121" s="22"/>
       <c r="F121" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G121" s="54"/>
-      <c r="H121" s="55"/>
-      <c r="I121" s="55"/>
-      <c r="J121" s="56"/>
-    </row>
-    <row r="122" spans="1:10" ht="17.399999999999999">
-      <c r="A122" s="62" t="s">
+      <c r="G121" s="60"/>
+      <c r="H121" s="61"/>
+      <c r="I121" s="61"/>
+      <c r="J121" s="62"/>
+    </row>
+    <row r="122" spans="1:15" ht="17.399999999999999">
+      <c r="A122" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B122" s="62"/>
-      <c r="C122" s="47"/>
-      <c r="D122" s="48"/>
-      <c r="E122" s="48"/>
-      <c r="F122" s="48"/>
-      <c r="G122" s="48"/>
-      <c r="H122" s="48"/>
-      <c r="I122" s="48"/>
-      <c r="J122" s="49"/>
-    </row>
-    <row r="123" spans="1:10" ht="17.399999999999999">
-      <c r="A123" s="62" t="s">
+      <c r="B122" s="63"/>
+      <c r="C122" s="46"/>
+      <c r="D122" s="47"/>
+      <c r="E122" s="47"/>
+      <c r="F122" s="47"/>
+      <c r="G122" s="47"/>
+      <c r="H122" s="47"/>
+      <c r="I122" s="47"/>
+      <c r="J122" s="48"/>
+    </row>
+    <row r="123" spans="1:15" ht="17.399999999999999">
+      <c r="A123" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B123" s="62"/>
-      <c r="C123" s="47"/>
-      <c r="D123" s="48"/>
-      <c r="E123" s="48"/>
-      <c r="F123" s="48"/>
-      <c r="G123" s="48"/>
-      <c r="H123" s="48"/>
-      <c r="I123" s="48"/>
-      <c r="J123" s="49"/>
-    </row>
-    <row r="124" spans="1:10" ht="17.399999999999999">
+      <c r="B123" s="63"/>
+      <c r="C123" s="46"/>
+      <c r="D123" s="47"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="47"/>
+      <c r="G123" s="47"/>
+      <c r="H123" s="47"/>
+      <c r="I123" s="47"/>
+      <c r="J123" s="48"/>
+    </row>
+    <row r="124" spans="1:15" ht="17.399999999999999">
       <c r="A124" s="31" t="s">
         <v>40</v>
       </c>
@@ -4395,114 +4921,148 @@
       <c r="E124" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F124" s="44" t="s">
+      <c r="F124" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G124" s="45"/>
-      <c r="H124" s="45"/>
-      <c r="I124" s="45"/>
-      <c r="J124" s="46"/>
-    </row>
-    <row r="125" spans="1:10" ht="17.399999999999999">
+      <c r="G124" s="44"/>
+      <c r="H124" s="44"/>
+      <c r="I124" s="44"/>
+      <c r="J124" s="45"/>
+    </row>
+    <row r="125" spans="1:15" ht="17.399999999999999">
       <c r="A125" s="26"/>
       <c r="B125" s="26"/>
       <c r="C125" s="27"/>
       <c r="D125" s="27"/>
       <c r="E125" s="20"/>
-      <c r="F125" s="47"/>
-      <c r="G125" s="48"/>
-      <c r="H125" s="48"/>
-      <c r="I125" s="48"/>
-      <c r="J125" s="49"/>
-    </row>
-    <row r="126" spans="1:10">
-      <c r="A126" s="50" t="s">
+      <c r="F125" s="46"/>
+      <c r="G125" s="47"/>
+      <c r="H125" s="47"/>
+      <c r="I125" s="47"/>
+      <c r="J125" s="48"/>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B126" s="50" t="s">
+      <c r="B126" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C126" s="50" t="s">
+      <c r="C126" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D126" s="52" t="s">
+      <c r="D126" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E126" s="50" t="s">
+      <c r="E126" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F126" s="50" t="s">
+      <c r="F126" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G126" s="50" t="s">
+      <c r="G126" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H126" s="50" t="s">
+      <c r="H126" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I126" s="50" t="s">
+      <c r="I126" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J126" s="50" t="s">
+      <c r="J126" s="49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="A127" s="51"/>
-      <c r="B127" s="51"/>
-      <c r="C127" s="51"/>
-      <c r="D127" s="53"/>
-      <c r="E127" s="51"/>
-      <c r="F127" s="51"/>
-      <c r="G127" s="51"/>
-      <c r="H127" s="51"/>
-      <c r="I127" s="51"/>
-      <c r="J127" s="51"/>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="L126" t="s">
+        <v>230</v>
+      </c>
+      <c r="M126" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N126" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="O126" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="50"/>
+      <c r="B127" s="50"/>
+      <c r="C127" s="50"/>
+      <c r="D127" s="52"/>
+      <c r="E127" s="50"/>
+      <c r="F127" s="50"/>
+      <c r="G127" s="50"/>
+      <c r="H127" s="50"/>
+      <c r="I127" s="50"/>
+      <c r="J127" s="50"/>
+      <c r="L127" s="99"/>
+      <c r="M127" s="50"/>
+      <c r="N127" s="52"/>
+      <c r="O127" s="50"/>
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
       <c r="D128" s="12" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G128" s="12"/>
       <c r="H128" s="29"/>
       <c r="I128" s="12"/>
       <c r="J128" s="12"/>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="L128" s="99"/>
+      <c r="M128" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="N128" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="O128" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" s="12" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
       <c r="D129" s="12" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H129" s="29"/>
       <c r="I129" s="12"/>
       <c r="J129" s="12"/>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="L129" s="99"/>
+      <c r="M129" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="N129" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="O129" s="12"/>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" s="12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
       <c r="D130" s="12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
@@ -4510,122 +5070,148 @@
       <c r="H130" s="29"/>
       <c r="I130" s="12"/>
       <c r="J130" s="12"/>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="L130" s="99"/>
+      <c r="M130" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="N130" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="O130" s="12"/>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" s="12" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
       <c r="D131" s="12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
       <c r="H131" s="29"/>
       <c r="I131" s="12" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J131" s="12"/>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="L131" s="99"/>
+      <c r="M131" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="N131" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="O131" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" s="12" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
       <c r="D132" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H132" s="29"/>
       <c r="I132" s="12"/>
       <c r="J132" s="12"/>
-    </row>
-    <row r="135" spans="1:10" ht="17.399999999999999">
-      <c r="A135" s="57" t="s">
+      <c r="L132" s="99"/>
+      <c r="M132" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="N132" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O132" s="12"/>
+    </row>
+    <row r="135" spans="1:15" ht="17.399999999999999">
+      <c r="A135" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B135" s="58"/>
-      <c r="C135" s="58"/>
-      <c r="D135" s="58"/>
-      <c r="E135" s="59"/>
-      <c r="F135" s="60"/>
-      <c r="G135" s="61"/>
-      <c r="H135" s="61"/>
-      <c r="I135" s="61"/>
-      <c r="J135" s="61"/>
-    </row>
-    <row r="136" spans="1:10" ht="17.399999999999999">
+      <c r="B135" s="54"/>
+      <c r="C135" s="54"/>
+      <c r="D135" s="54"/>
+      <c r="E135" s="55"/>
+      <c r="F135" s="56"/>
+      <c r="G135" s="57"/>
+      <c r="H135" s="57"/>
+      <c r="I135" s="57"/>
+      <c r="J135" s="57"/>
+    </row>
+    <row r="136" spans="1:15" ht="17.399999999999999">
       <c r="A136" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B136" s="63">
+      <c r="B136" s="58">
         <v>7</v>
       </c>
-      <c r="C136" s="63"/>
-      <c r="D136" s="63"/>
-      <c r="E136" s="64"/>
+      <c r="C136" s="58"/>
+      <c r="D136" s="58"/>
+      <c r="E136" s="59"/>
       <c r="F136" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G136" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="H136" s="55"/>
-      <c r="I136" s="55"/>
-      <c r="J136" s="56"/>
-    </row>
-    <row r="137" spans="1:10" ht="17.399999999999999">
-      <c r="A137" s="44" t="s">
+      <c r="G136" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="H136" s="61"/>
+      <c r="I136" s="61"/>
+      <c r="J136" s="62"/>
+    </row>
+    <row r="137" spans="1:15" ht="17.399999999999999">
+      <c r="A137" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B137" s="46"/>
+      <c r="B137" s="45"/>
       <c r="C137" s="21"/>
       <c r="D137" s="21"/>
       <c r="E137" s="22"/>
       <c r="F137" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G137" s="54"/>
-      <c r="H137" s="55"/>
-      <c r="I137" s="55"/>
-      <c r="J137" s="56"/>
-    </row>
-    <row r="138" spans="1:10" ht="17.399999999999999">
-      <c r="A138" s="62" t="s">
+      <c r="G137" s="60"/>
+      <c r="H137" s="61"/>
+      <c r="I137" s="61"/>
+      <c r="J137" s="62"/>
+    </row>
+    <row r="138" spans="1:15" ht="17.399999999999999">
+      <c r="A138" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B138" s="62"/>
-      <c r="C138" s="47"/>
-      <c r="D138" s="48"/>
-      <c r="E138" s="48"/>
-      <c r="F138" s="48"/>
-      <c r="G138" s="48"/>
-      <c r="H138" s="48"/>
-      <c r="I138" s="48"/>
-      <c r="J138" s="49"/>
-    </row>
-    <row r="139" spans="1:10" ht="17.399999999999999">
-      <c r="A139" s="62" t="s">
+      <c r="B138" s="63"/>
+      <c r="C138" s="46"/>
+      <c r="D138" s="47"/>
+      <c r="E138" s="47"/>
+      <c r="F138" s="47"/>
+      <c r="G138" s="47"/>
+      <c r="H138" s="47"/>
+      <c r="I138" s="47"/>
+      <c r="J138" s="48"/>
+    </row>
+    <row r="139" spans="1:15" ht="17.399999999999999">
+      <c r="A139" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B139" s="62"/>
-      <c r="C139" s="47"/>
-      <c r="D139" s="48"/>
-      <c r="E139" s="48"/>
-      <c r="F139" s="48"/>
-      <c r="G139" s="48"/>
-      <c r="H139" s="48"/>
-      <c r="I139" s="48"/>
-      <c r="J139" s="49"/>
-    </row>
-    <row r="140" spans="1:10" ht="17.399999999999999">
+      <c r="B139" s="63"/>
+      <c r="C139" s="46"/>
+      <c r="D139" s="47"/>
+      <c r="E139" s="47"/>
+      <c r="F139" s="47"/>
+      <c r="G139" s="47"/>
+      <c r="H139" s="47"/>
+      <c r="I139" s="47"/>
+      <c r="J139" s="48"/>
+    </row>
+    <row r="140" spans="1:15" ht="17.399999999999999">
       <c r="A140" s="31" t="s">
         <v>40</v>
       </c>
@@ -4641,221 +5227,271 @@
       <c r="E140" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F140" s="44" t="s">
+      <c r="F140" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G140" s="45"/>
-      <c r="H140" s="45"/>
-      <c r="I140" s="45"/>
-      <c r="J140" s="46"/>
-    </row>
-    <row r="141" spans="1:10" ht="17.399999999999999">
+      <c r="G140" s="44"/>
+      <c r="H140" s="44"/>
+      <c r="I140" s="44"/>
+      <c r="J140" s="45"/>
+    </row>
+    <row r="141" spans="1:15" ht="17.399999999999999" customHeight="1">
       <c r="A141" s="26"/>
       <c r="B141" s="26"/>
       <c r="C141" s="27"/>
       <c r="D141" s="27"/>
       <c r="E141" s="20"/>
-      <c r="F141" s="47"/>
-      <c r="G141" s="48"/>
-      <c r="H141" s="48"/>
-      <c r="I141" s="48"/>
-      <c r="J141" s="49"/>
-    </row>
-    <row r="142" spans="1:10">
-      <c r="A142" s="50" t="s">
+      <c r="F141" s="46"/>
+      <c r="G141" s="47"/>
+      <c r="H141" s="47"/>
+      <c r="I141" s="47"/>
+      <c r="J141" s="48"/>
+    </row>
+    <row r="142" spans="1:15" ht="14.4" customHeight="1">
+      <c r="A142" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B142" s="50" t="s">
+      <c r="B142" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C142" s="50" t="s">
+      <c r="C142" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D142" s="52" t="s">
+      <c r="D142" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E142" s="50" t="s">
+      <c r="E142" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F142" s="50" t="s">
+      <c r="F142" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G142" s="50" t="s">
+      <c r="G142" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H142" s="50" t="s">
+      <c r="H142" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I142" s="50" t="s">
+      <c r="I142" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J142" s="50" t="s">
+      <c r="J142" s="49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
-      <c r="A143" s="51"/>
-      <c r="B143" s="51"/>
-      <c r="C143" s="51"/>
-      <c r="D143" s="53"/>
-      <c r="E143" s="51"/>
-      <c r="F143" s="51"/>
-      <c r="G143" s="51"/>
-      <c r="H143" s="51"/>
-      <c r="I143" s="51"/>
-      <c r="J143" s="51"/>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="L142" t="s">
+        <v>230</v>
+      </c>
+      <c r="M142" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N142" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="O142" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="14.4" customHeight="1">
+      <c r="A143" s="50"/>
+      <c r="B143" s="50"/>
+      <c r="C143" s="50"/>
+      <c r="D143" s="52"/>
+      <c r="E143" s="50"/>
+      <c r="F143" s="50"/>
+      <c r="G143" s="50"/>
+      <c r="H143" s="50"/>
+      <c r="I143" s="50"/>
+      <c r="J143" s="50"/>
+      <c r="L143" s="101"/>
+      <c r="M143" s="50"/>
+      <c r="N143" s="52"/>
+      <c r="O143" s="50"/>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" s="12" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
       <c r="D144" s="12" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
       <c r="G144" s="12" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H144" s="29"/>
       <c r="I144" s="12"/>
       <c r="J144" s="12"/>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="L144" s="101"/>
+      <c r="M144" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="N144" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="12" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
       <c r="D145" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
       <c r="G145" s="12" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H145" s="29"/>
       <c r="I145" s="12"/>
       <c r="J145" s="12"/>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="L145" s="101"/>
+      <c r="M145" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="N145" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="12" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
       <c r="D146" s="12" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F146" s="12"/>
       <c r="G146" s="12"/>
       <c r="H146" s="29"/>
       <c r="I146" s="12"/>
       <c r="J146" s="12"/>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="L146" s="101"/>
+      <c r="M146" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="N146" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="O146" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="12" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
       <c r="D147" s="12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
       <c r="G147" s="12"/>
       <c r="H147" s="29"/>
       <c r="I147" s="12" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J147" s="12"/>
-    </row>
-    <row r="150" spans="1:10" ht="17.399999999999999">
-      <c r="A150" s="57" t="s">
+      <c r="L147" s="101"/>
+      <c r="M147" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="N147" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="O147" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="17.399999999999999">
+      <c r="A150" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B150" s="58"/>
-      <c r="C150" s="58"/>
-      <c r="D150" s="58"/>
-      <c r="E150" s="59"/>
-      <c r="F150" s="60"/>
-      <c r="G150" s="61"/>
-      <c r="H150" s="61"/>
-      <c r="I150" s="61"/>
-      <c r="J150" s="61"/>
-    </row>
-    <row r="151" spans="1:10" ht="17.399999999999999">
+      <c r="B150" s="54"/>
+      <c r="C150" s="54"/>
+      <c r="D150" s="54"/>
+      <c r="E150" s="55"/>
+      <c r="F150" s="56"/>
+      <c r="G150" s="57"/>
+      <c r="H150" s="57"/>
+      <c r="I150" s="57"/>
+      <c r="J150" s="57"/>
+    </row>
+    <row r="151" spans="1:15" ht="17.399999999999999">
       <c r="A151" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B151" s="63">
+      <c r="B151" s="58">
         <v>8</v>
       </c>
-      <c r="C151" s="63"/>
-      <c r="D151" s="63"/>
-      <c r="E151" s="64"/>
+      <c r="C151" s="58"/>
+      <c r="D151" s="58"/>
+      <c r="E151" s="59"/>
       <c r="F151" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G151" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="H151" s="55"/>
-      <c r="I151" s="55"/>
-      <c r="J151" s="56"/>
-    </row>
-    <row r="152" spans="1:10" ht="17.399999999999999">
-      <c r="A152" s="44" t="s">
+      <c r="G151" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="H151" s="61"/>
+      <c r="I151" s="61"/>
+      <c r="J151" s="62"/>
+    </row>
+    <row r="152" spans="1:15" ht="17.399999999999999">
+      <c r="A152" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B152" s="46"/>
+      <c r="B152" s="45"/>
       <c r="C152" s="21"/>
       <c r="D152" s="21"/>
       <c r="E152" s="22"/>
       <c r="F152" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G152" s="54"/>
-      <c r="H152" s="55"/>
-      <c r="I152" s="55"/>
-      <c r="J152" s="56"/>
-    </row>
-    <row r="153" spans="1:10" ht="17.399999999999999">
-      <c r="A153" s="62" t="s">
+      <c r="G152" s="60"/>
+      <c r="H152" s="61"/>
+      <c r="I152" s="61"/>
+      <c r="J152" s="62"/>
+    </row>
+    <row r="153" spans="1:15" ht="17.399999999999999">
+      <c r="A153" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B153" s="62"/>
-      <c r="C153" s="47"/>
-      <c r="D153" s="48"/>
-      <c r="E153" s="48"/>
-      <c r="F153" s="48"/>
-      <c r="G153" s="48"/>
-      <c r="H153" s="48"/>
-      <c r="I153" s="48"/>
-      <c r="J153" s="49"/>
-    </row>
-    <row r="154" spans="1:10" ht="17.399999999999999">
-      <c r="A154" s="62" t="s">
+      <c r="B153" s="63"/>
+      <c r="C153" s="46"/>
+      <c r="D153" s="47"/>
+      <c r="E153" s="47"/>
+      <c r="F153" s="47"/>
+      <c r="G153" s="47"/>
+      <c r="H153" s="47"/>
+      <c r="I153" s="47"/>
+      <c r="J153" s="48"/>
+    </row>
+    <row r="154" spans="1:15" ht="17.399999999999999">
+      <c r="A154" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B154" s="62"/>
-      <c r="C154" s="47"/>
-      <c r="D154" s="48"/>
-      <c r="E154" s="48"/>
-      <c r="F154" s="48"/>
-      <c r="G154" s="48"/>
-      <c r="H154" s="48"/>
-      <c r="I154" s="48"/>
-      <c r="J154" s="49"/>
-    </row>
-    <row r="155" spans="1:10" ht="17.399999999999999">
+      <c r="B154" s="63"/>
+      <c r="C154" s="46"/>
+      <c r="D154" s="47"/>
+      <c r="E154" s="47"/>
+      <c r="F154" s="47"/>
+      <c r="G154" s="47"/>
+      <c r="H154" s="47"/>
+      <c r="I154" s="47"/>
+      <c r="J154" s="48"/>
+    </row>
+    <row r="155" spans="1:15" ht="17.399999999999999">
       <c r="A155" s="31" t="s">
         <v>40</v>
       </c>
@@ -4871,96 +5507,120 @@
       <c r="E155" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F155" s="44" t="s">
+      <c r="F155" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G155" s="45"/>
-      <c r="H155" s="45"/>
-      <c r="I155" s="45"/>
-      <c r="J155" s="46"/>
-    </row>
-    <row r="156" spans="1:10" ht="17.399999999999999">
+      <c r="G155" s="44"/>
+      <c r="H155" s="44"/>
+      <c r="I155" s="44"/>
+      <c r="J155" s="45"/>
+    </row>
+    <row r="156" spans="1:15" ht="17.399999999999999">
       <c r="A156" s="26"/>
       <c r="B156" s="26"/>
       <c r="C156" s="27"/>
       <c r="D156" s="27"/>
       <c r="E156" s="20"/>
-      <c r="F156" s="47"/>
-      <c r="G156" s="48"/>
-      <c r="H156" s="48"/>
-      <c r="I156" s="48"/>
-      <c r="J156" s="49"/>
-    </row>
-    <row r="157" spans="1:10">
-      <c r="A157" s="50" t="s">
+      <c r="F156" s="46"/>
+      <c r="G156" s="47"/>
+      <c r="H156" s="47"/>
+      <c r="I156" s="47"/>
+      <c r="J156" s="48"/>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B157" s="50" t="s">
+      <c r="B157" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C157" s="50" t="s">
+      <c r="C157" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D157" s="52" t="s">
+      <c r="D157" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E157" s="50" t="s">
+      <c r="E157" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F157" s="50" t="s">
+      <c r="F157" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G157" s="50" t="s">
+      <c r="G157" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H157" s="50" t="s">
+      <c r="H157" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I157" s="50" t="s">
+      <c r="I157" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J157" s="50" t="s">
+      <c r="J157" s="49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
-      <c r="A158" s="51"/>
-      <c r="B158" s="51"/>
-      <c r="C158" s="51"/>
-      <c r="D158" s="53"/>
-      <c r="E158" s="51"/>
-      <c r="F158" s="51"/>
-      <c r="G158" s="51"/>
-      <c r="H158" s="51"/>
-      <c r="I158" s="51"/>
-      <c r="J158" s="51"/>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="L157" t="s">
+        <v>230</v>
+      </c>
+      <c r="M157" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N157" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="O157" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" s="50"/>
+      <c r="B158" s="50"/>
+      <c r="C158" s="50"/>
+      <c r="D158" s="52"/>
+      <c r="E158" s="50"/>
+      <c r="F158" s="50"/>
+      <c r="G158" s="50"/>
+      <c r="H158" s="50"/>
+      <c r="I158" s="50"/>
+      <c r="J158" s="50"/>
+      <c r="M158" s="50"/>
+      <c r="N158" s="52"/>
+      <c r="O158" s="50"/>
+    </row>
+    <row r="159" spans="1:15">
       <c r="A159" s="12" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
       <c r="D159" s="12" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E159" s="12"/>
       <c r="F159" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G159" s="12"/>
       <c r="H159" s="29"/>
       <c r="I159" s="12"/>
       <c r="J159" s="12"/>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="M159" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="N159" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="O159" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
       <c r="D160" s="12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
@@ -4968,104 +5628,116 @@
       <c r="H160" s="29"/>
       <c r="I160" s="12"/>
       <c r="J160" s="12"/>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="M160" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="N160" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
       <c r="A161" s="12" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
       <c r="D161" s="12" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
       <c r="G161" s="12" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H161" s="29"/>
       <c r="I161" s="12"/>
       <c r="J161" s="12"/>
-    </row>
-    <row r="164" spans="1:10" ht="17.399999999999999">
-      <c r="A164" s="57" t="s">
+      <c r="M161" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="N161" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="17.399999999999999">
+      <c r="A164" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B164" s="58"/>
-      <c r="C164" s="58"/>
-      <c r="D164" s="58"/>
-      <c r="E164" s="59"/>
-      <c r="F164" s="60"/>
-      <c r="G164" s="61"/>
-      <c r="H164" s="61"/>
-      <c r="I164" s="61"/>
-      <c r="J164" s="61"/>
-    </row>
-    <row r="165" spans="1:10" ht="17.399999999999999">
+      <c r="B164" s="54"/>
+      <c r="C164" s="54"/>
+      <c r="D164" s="54"/>
+      <c r="E164" s="55"/>
+      <c r="F164" s="56"/>
+      <c r="G164" s="57"/>
+      <c r="H164" s="57"/>
+      <c r="I164" s="57"/>
+      <c r="J164" s="57"/>
+    </row>
+    <row r="165" spans="1:15" ht="17.399999999999999">
       <c r="A165" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B165" s="63">
+      <c r="B165" s="58">
         <v>9</v>
       </c>
-      <c r="C165" s="63"/>
-      <c r="D165" s="63"/>
-      <c r="E165" s="64"/>
+      <c r="C165" s="58"/>
+      <c r="D165" s="58"/>
+      <c r="E165" s="59"/>
       <c r="F165" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G165" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="H165" s="55"/>
-      <c r="I165" s="55"/>
-      <c r="J165" s="56"/>
-    </row>
-    <row r="166" spans="1:10" ht="17.399999999999999">
-      <c r="A166" s="44" t="s">
+      <c r="G165" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="H165" s="61"/>
+      <c r="I165" s="61"/>
+      <c r="J165" s="62"/>
+    </row>
+    <row r="166" spans="1:15" ht="17.399999999999999">
+      <c r="A166" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B166" s="46"/>
+      <c r="B166" s="45"/>
       <c r="C166" s="21"/>
       <c r="D166" s="21"/>
       <c r="E166" s="22"/>
       <c r="F166" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G166" s="54"/>
-      <c r="H166" s="55"/>
-      <c r="I166" s="55"/>
-      <c r="J166" s="56"/>
-    </row>
-    <row r="167" spans="1:10" ht="17.399999999999999">
-      <c r="A167" s="62" t="s">
+      <c r="G166" s="60"/>
+      <c r="H166" s="61"/>
+      <c r="I166" s="61"/>
+      <c r="J166" s="62"/>
+    </row>
+    <row r="167" spans="1:15" ht="17.399999999999999">
+      <c r="A167" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B167" s="62"/>
-      <c r="C167" s="47"/>
-      <c r="D167" s="48"/>
-      <c r="E167" s="48"/>
-      <c r="F167" s="48"/>
-      <c r="G167" s="48"/>
-      <c r="H167" s="48"/>
-      <c r="I167" s="48"/>
-      <c r="J167" s="49"/>
-    </row>
-    <row r="168" spans="1:10" ht="17.399999999999999">
-      <c r="A168" s="62" t="s">
+      <c r="B167" s="63"/>
+      <c r="C167" s="46"/>
+      <c r="D167" s="47"/>
+      <c r="E167" s="47"/>
+      <c r="F167" s="47"/>
+      <c r="G167" s="47"/>
+      <c r="H167" s="47"/>
+      <c r="I167" s="47"/>
+      <c r="J167" s="48"/>
+    </row>
+    <row r="168" spans="1:15" ht="17.399999999999999">
+      <c r="A168" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B168" s="62"/>
-      <c r="C168" s="47"/>
-      <c r="D168" s="48"/>
-      <c r="E168" s="48"/>
-      <c r="F168" s="48"/>
-      <c r="G168" s="48"/>
-      <c r="H168" s="48"/>
-      <c r="I168" s="48"/>
-      <c r="J168" s="49"/>
-    </row>
-    <row r="169" spans="1:10" ht="17.399999999999999">
+      <c r="B168" s="63"/>
+      <c r="C168" s="46"/>
+      <c r="D168" s="47"/>
+      <c r="E168" s="47"/>
+      <c r="F168" s="47"/>
+      <c r="G168" s="47"/>
+      <c r="H168" s="47"/>
+      <c r="I168" s="47"/>
+      <c r="J168" s="48"/>
+    </row>
+    <row r="169" spans="1:15" ht="17.399999999999999">
       <c r="A169" s="35" t="s">
         <v>40</v>
       </c>
@@ -5081,96 +5753,120 @@
       <c r="E169" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F169" s="44" t="s">
+      <c r="F169" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G169" s="45"/>
-      <c r="H169" s="45"/>
-      <c r="I169" s="45"/>
-      <c r="J169" s="46"/>
-    </row>
-    <row r="170" spans="1:10" ht="17.399999999999999">
+      <c r="G169" s="44"/>
+      <c r="H169" s="44"/>
+      <c r="I169" s="44"/>
+      <c r="J169" s="45"/>
+    </row>
+    <row r="170" spans="1:15" ht="17.399999999999999">
       <c r="A170" s="26"/>
       <c r="B170" s="26"/>
       <c r="C170" s="27"/>
       <c r="D170" s="27"/>
       <c r="E170" s="20"/>
-      <c r="F170" s="47"/>
-      <c r="G170" s="48"/>
-      <c r="H170" s="48"/>
-      <c r="I170" s="48"/>
-      <c r="J170" s="49"/>
-    </row>
-    <row r="171" spans="1:10">
-      <c r="A171" s="50" t="s">
+      <c r="F170" s="46"/>
+      <c r="G170" s="47"/>
+      <c r="H170" s="47"/>
+      <c r="I170" s="47"/>
+      <c r="J170" s="48"/>
+    </row>
+    <row r="171" spans="1:15">
+      <c r="A171" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B171" s="50" t="s">
+      <c r="B171" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C171" s="50" t="s">
+      <c r="C171" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D171" s="52" t="s">
+      <c r="D171" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E171" s="50" t="s">
+      <c r="E171" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F171" s="50" t="s">
+      <c r="F171" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G171" s="50" t="s">
+      <c r="G171" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H171" s="50" t="s">
+      <c r="H171" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I171" s="50" t="s">
+      <c r="I171" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J171" s="50" t="s">
+      <c r="J171" s="49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
-      <c r="A172" s="51"/>
-      <c r="B172" s="51"/>
-      <c r="C172" s="51"/>
-      <c r="D172" s="53"/>
-      <c r="E172" s="51"/>
-      <c r="F172" s="51"/>
-      <c r="G172" s="51"/>
-      <c r="H172" s="51"/>
-      <c r="I172" s="51"/>
-      <c r="J172" s="51"/>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="L171" t="s">
+        <v>230</v>
+      </c>
+      <c r="M171" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N171" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="O171" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
+      <c r="A172" s="50"/>
+      <c r="B172" s="50"/>
+      <c r="C172" s="50"/>
+      <c r="D172" s="52"/>
+      <c r="E172" s="50"/>
+      <c r="F172" s="50"/>
+      <c r="G172" s="50"/>
+      <c r="H172" s="50"/>
+      <c r="I172" s="50"/>
+      <c r="J172" s="50"/>
+      <c r="M172" s="50"/>
+      <c r="N172" s="52"/>
+      <c r="O172" s="50"/>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" s="12" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
       <c r="D173" s="12" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E173" s="12"/>
       <c r="F173" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G173" s="12"/>
       <c r="H173" s="29"/>
       <c r="I173" s="12"/>
       <c r="J173" s="12"/>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="M173" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="N173" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="O173" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
       <c r="D174" s="12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E174" s="12"/>
       <c r="F174" s="12"/>
@@ -5178,126 +5874,150 @@
       <c r="H174" s="29"/>
       <c r="I174" s="12"/>
       <c r="J174" s="12"/>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="M174" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="N174" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" s="12" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
       <c r="D175" s="12" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F175" s="12"/>
       <c r="G175" s="12" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H175" s="29"/>
       <c r="I175" s="12"/>
       <c r="J175" s="12"/>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="M175" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="N175" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O175" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="12" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
       <c r="D176" s="12" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F176" s="12"/>
       <c r="G176" s="12" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H176" s="29"/>
       <c r="I176" s="12"/>
       <c r="J176" s="12"/>
-    </row>
-    <row r="179" spans="1:10" ht="17.399999999999999">
-      <c r="A179" s="57" t="s">
+      <c r="M176" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="N176" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O176" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" ht="17.399999999999999">
+      <c r="A179" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B179" s="58"/>
-      <c r="C179" s="58"/>
-      <c r="D179" s="58"/>
-      <c r="E179" s="59"/>
-      <c r="F179" s="60"/>
-      <c r="G179" s="61"/>
-      <c r="H179" s="61"/>
-      <c r="I179" s="61"/>
-      <c r="J179" s="61"/>
-    </row>
-    <row r="180" spans="1:10" ht="17.399999999999999">
+      <c r="B179" s="54"/>
+      <c r="C179" s="54"/>
+      <c r="D179" s="54"/>
+      <c r="E179" s="55"/>
+      <c r="F179" s="56"/>
+      <c r="G179" s="57"/>
+      <c r="H179" s="57"/>
+      <c r="I179" s="57"/>
+      <c r="J179" s="57"/>
+    </row>
+    <row r="180" spans="1:15" ht="17.399999999999999">
       <c r="A180" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B180" s="63">
+      <c r="B180" s="58">
         <v>10</v>
       </c>
-      <c r="C180" s="63"/>
-      <c r="D180" s="63"/>
-      <c r="E180" s="64"/>
+      <c r="C180" s="58"/>
+      <c r="D180" s="58"/>
+      <c r="E180" s="59"/>
       <c r="F180" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G180" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="H180" s="55"/>
-      <c r="I180" s="55"/>
-      <c r="J180" s="56"/>
-    </row>
-    <row r="181" spans="1:10" ht="17.399999999999999">
-      <c r="A181" s="44" t="s">
+      <c r="G180" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="H180" s="61"/>
+      <c r="I180" s="61"/>
+      <c r="J180" s="62"/>
+    </row>
+    <row r="181" spans="1:15" ht="17.399999999999999">
+      <c r="A181" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B181" s="46"/>
+      <c r="B181" s="45"/>
       <c r="C181" s="21"/>
       <c r="D181" s="21"/>
       <c r="E181" s="22"/>
       <c r="F181" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="G181" s="54"/>
-      <c r="H181" s="55"/>
-      <c r="I181" s="55"/>
-      <c r="J181" s="56"/>
-    </row>
-    <row r="182" spans="1:10" ht="17.399999999999999">
-      <c r="A182" s="62" t="s">
+      <c r="G181" s="60"/>
+      <c r="H181" s="61"/>
+      <c r="I181" s="61"/>
+      <c r="J181" s="62"/>
+    </row>
+    <row r="182" spans="1:15" ht="17.399999999999999">
+      <c r="A182" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B182" s="62"/>
-      <c r="C182" s="47"/>
-      <c r="D182" s="48"/>
-      <c r="E182" s="48"/>
-      <c r="F182" s="48"/>
-      <c r="G182" s="48"/>
-      <c r="H182" s="48"/>
-      <c r="I182" s="48"/>
-      <c r="J182" s="49"/>
-    </row>
-    <row r="183" spans="1:10" ht="17.399999999999999">
-      <c r="A183" s="62" t="s">
+      <c r="B182" s="63"/>
+      <c r="C182" s="46"/>
+      <c r="D182" s="47"/>
+      <c r="E182" s="47"/>
+      <c r="F182" s="47"/>
+      <c r="G182" s="47"/>
+      <c r="H182" s="47"/>
+      <c r="I182" s="47"/>
+      <c r="J182" s="48"/>
+    </row>
+    <row r="183" spans="1:15" ht="17.399999999999999">
+      <c r="A183" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B183" s="62"/>
-      <c r="C183" s="47"/>
-      <c r="D183" s="48"/>
-      <c r="E183" s="48"/>
-      <c r="F183" s="48"/>
-      <c r="G183" s="48"/>
-      <c r="H183" s="48"/>
-      <c r="I183" s="48"/>
-      <c r="J183" s="49"/>
-    </row>
-    <row r="184" spans="1:10" ht="17.399999999999999">
+      <c r="B183" s="63"/>
+      <c r="C183" s="46"/>
+      <c r="D183" s="47"/>
+      <c r="E183" s="47"/>
+      <c r="F183" s="47"/>
+      <c r="G183" s="47"/>
+      <c r="H183" s="47"/>
+      <c r="I183" s="47"/>
+      <c r="J183" s="48"/>
+    </row>
+    <row r="184" spans="1:15" ht="17.399999999999999">
       <c r="A184" s="37" t="s">
         <v>40</v>
       </c>
@@ -5313,116 +6033,153 @@
       <c r="E184" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="F184" s="44" t="s">
+      <c r="F184" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G184" s="45"/>
-      <c r="H184" s="45"/>
-      <c r="I184" s="45"/>
-      <c r="J184" s="46"/>
-    </row>
-    <row r="185" spans="1:10" ht="17.399999999999999">
+      <c r="G184" s="44"/>
+      <c r="H184" s="44"/>
+      <c r="I184" s="44"/>
+      <c r="J184" s="45"/>
+    </row>
+    <row r="185" spans="1:15" ht="17.399999999999999">
       <c r="A185" s="26"/>
       <c r="B185" s="26"/>
       <c r="C185" s="27"/>
       <c r="D185" s="27"/>
       <c r="E185" s="20"/>
-      <c r="F185" s="47"/>
-      <c r="G185" s="48"/>
-      <c r="H185" s="48"/>
-      <c r="I185" s="48"/>
-      <c r="J185" s="49"/>
-    </row>
-    <row r="186" spans="1:10">
-      <c r="A186" s="50" t="s">
+      <c r="F185" s="46"/>
+      <c r="G185" s="47"/>
+      <c r="H185" s="47"/>
+      <c r="I185" s="47"/>
+      <c r="J185" s="48"/>
+      <c r="L185" s="103"/>
+    </row>
+    <row r="186" spans="1:15">
+      <c r="A186" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B186" s="50" t="s">
+      <c r="B186" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C186" s="50" t="s">
+      <c r="C186" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D186" s="52" t="s">
+      <c r="D186" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E186" s="50" t="s">
+      <c r="E186" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F186" s="50" t="s">
+      <c r="F186" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G186" s="50" t="s">
+      <c r="G186" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H186" s="50" t="s">
+      <c r="H186" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I186" s="50" t="s">
+      <c r="I186" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J186" s="50" t="s">
+      <c r="J186" s="49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
-      <c r="A187" s="51"/>
-      <c r="B187" s="51"/>
-      <c r="C187" s="51"/>
-      <c r="D187" s="53"/>
-      <c r="E187" s="51"/>
-      <c r="F187" s="51"/>
-      <c r="G187" s="51"/>
-      <c r="H187" s="51"/>
-      <c r="I187" s="51"/>
-      <c r="J187" s="51"/>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="L186" t="s">
+        <v>230</v>
+      </c>
+      <c r="M186" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N186" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="O186" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15">
+      <c r="A187" s="50"/>
+      <c r="B187" s="50"/>
+      <c r="C187" s="50"/>
+      <c r="D187" s="52"/>
+      <c r="E187" s="50"/>
+      <c r="F187" s="50"/>
+      <c r="G187" s="50"/>
+      <c r="H187" s="50"/>
+      <c r="I187" s="50"/>
+      <c r="J187" s="50"/>
+      <c r="L187" s="100"/>
+      <c r="M187" s="50"/>
+      <c r="N187" s="52"/>
+      <c r="O187" s="50"/>
+    </row>
+    <row r="188" spans="1:15">
       <c r="A188" s="12" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
       <c r="D188" s="12" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E188" s="12"/>
       <c r="F188" s="12"/>
       <c r="G188" s="12"/>
       <c r="H188" s="29"/>
       <c r="I188" s="12" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="J188" s="12"/>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="L188" s="100"/>
+      <c r="M188" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="N188" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="O188" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15">
       <c r="A189" s="12" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
       <c r="D189" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F189" s="12"/>
       <c r="G189" s="12" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="H189" s="29"/>
       <c r="I189" s="12"/>
       <c r="J189" s="12"/>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="L189" s="100"/>
+      <c r="M189" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="N189" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O189" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15">
       <c r="A190" s="12" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
       <c r="D190" s="12" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E190" s="12"/>
       <c r="F190" s="12"/>
@@ -5432,86 +6189,96 @@
         <v>0</v>
       </c>
       <c r="J190" s="12"/>
-    </row>
-    <row r="193" spans="1:10" ht="17.399999999999999">
-      <c r="A193" s="57" t="s">
+      <c r="L190" s="100"/>
+      <c r="M190" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="N190" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="O190" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" ht="17.399999999999999">
+      <c r="A193" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B193" s="58"/>
-      <c r="C193" s="58"/>
-      <c r="D193" s="58"/>
-      <c r="E193" s="59"/>
-      <c r="F193" s="60"/>
-      <c r="G193" s="61"/>
-      <c r="H193" s="61"/>
-      <c r="I193" s="61"/>
-      <c r="J193" s="61"/>
-    </row>
-    <row r="194" spans="1:10" ht="17.399999999999999">
+      <c r="B193" s="54"/>
+      <c r="C193" s="54"/>
+      <c r="D193" s="54"/>
+      <c r="E193" s="55"/>
+      <c r="F193" s="56"/>
+      <c r="G193" s="57"/>
+      <c r="H193" s="57"/>
+      <c r="I193" s="57"/>
+      <c r="J193" s="57"/>
+    </row>
+    <row r="194" spans="1:15" ht="17.399999999999999">
       <c r="A194" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B194" s="63">
+      <c r="B194" s="58">
         <v>11</v>
       </c>
-      <c r="C194" s="63"/>
-      <c r="D194" s="63"/>
-      <c r="E194" s="64"/>
+      <c r="C194" s="58"/>
+      <c r="D194" s="58"/>
+      <c r="E194" s="59"/>
       <c r="F194" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G194" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="H194" s="55"/>
-      <c r="I194" s="55"/>
-      <c r="J194" s="56"/>
-    </row>
-    <row r="195" spans="1:10" ht="17.399999999999999">
-      <c r="A195" s="44" t="s">
+      <c r="G194" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="H194" s="61"/>
+      <c r="I194" s="61"/>
+      <c r="J194" s="62"/>
+    </row>
+    <row r="195" spans="1:15" ht="17.399999999999999">
+      <c r="A195" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B195" s="46"/>
+      <c r="B195" s="45"/>
       <c r="C195" s="21"/>
       <c r="D195" s="21"/>
       <c r="E195" s="22"/>
       <c r="F195" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="G195" s="54"/>
-      <c r="H195" s="55"/>
-      <c r="I195" s="55"/>
-      <c r="J195" s="56"/>
-    </row>
-    <row r="196" spans="1:10" ht="17.399999999999999">
-      <c r="A196" s="62" t="s">
+      <c r="G195" s="60"/>
+      <c r="H195" s="61"/>
+      <c r="I195" s="61"/>
+      <c r="J195" s="62"/>
+    </row>
+    <row r="196" spans="1:15" ht="17.399999999999999">
+      <c r="A196" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B196" s="62"/>
-      <c r="C196" s="47"/>
-      <c r="D196" s="48"/>
-      <c r="E196" s="48"/>
-      <c r="F196" s="48"/>
-      <c r="G196" s="48"/>
-      <c r="H196" s="48"/>
-      <c r="I196" s="48"/>
-      <c r="J196" s="49"/>
-    </row>
-    <row r="197" spans="1:10" ht="17.399999999999999">
-      <c r="A197" s="62" t="s">
+      <c r="B196" s="63"/>
+      <c r="C196" s="46"/>
+      <c r="D196" s="47"/>
+      <c r="E196" s="47"/>
+      <c r="F196" s="47"/>
+      <c r="G196" s="47"/>
+      <c r="H196" s="47"/>
+      <c r="I196" s="47"/>
+      <c r="J196" s="48"/>
+    </row>
+    <row r="197" spans="1:15" ht="17.399999999999999">
+      <c r="A197" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B197" s="62"/>
-      <c r="C197" s="47"/>
-      <c r="D197" s="48"/>
-      <c r="E197" s="48"/>
-      <c r="F197" s="48"/>
-      <c r="G197" s="48"/>
-      <c r="H197" s="48"/>
-      <c r="I197" s="48"/>
-      <c r="J197" s="49"/>
-    </row>
-    <row r="198" spans="1:10" ht="17.399999999999999">
+      <c r="B197" s="63"/>
+      <c r="C197" s="46"/>
+      <c r="D197" s="47"/>
+      <c r="E197" s="47"/>
+      <c r="F197" s="47"/>
+      <c r="G197" s="47"/>
+      <c r="H197" s="47"/>
+      <c r="I197" s="47"/>
+      <c r="J197" s="48"/>
+    </row>
+    <row r="198" spans="1:15" ht="17.399999999999999">
       <c r="A198" s="37" t="s">
         <v>40</v>
       </c>
@@ -5527,116 +6294,152 @@
       <c r="E198" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="F198" s="44" t="s">
+      <c r="F198" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G198" s="45"/>
-      <c r="H198" s="45"/>
-      <c r="I198" s="45"/>
-      <c r="J198" s="46"/>
-    </row>
-    <row r="199" spans="1:10" ht="17.399999999999999">
+      <c r="G198" s="44"/>
+      <c r="H198" s="44"/>
+      <c r="I198" s="44"/>
+      <c r="J198" s="45"/>
+    </row>
+    <row r="199" spans="1:15" ht="17.399999999999999">
       <c r="A199" s="26"/>
       <c r="B199" s="26"/>
       <c r="C199" s="27"/>
       <c r="D199" s="27"/>
       <c r="E199" s="20"/>
-      <c r="F199" s="47"/>
-      <c r="G199" s="48"/>
-      <c r="H199" s="48"/>
-      <c r="I199" s="48"/>
-      <c r="J199" s="49"/>
-    </row>
-    <row r="200" spans="1:10">
-      <c r="A200" s="50" t="s">
+      <c r="F199" s="46"/>
+      <c r="G199" s="47"/>
+      <c r="H199" s="47"/>
+      <c r="I199" s="47"/>
+      <c r="J199" s="48"/>
+    </row>
+    <row r="200" spans="1:15">
+      <c r="A200" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B200" s="50" t="s">
+      <c r="B200" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C200" s="50" t="s">
+      <c r="C200" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D200" s="52" t="s">
+      <c r="D200" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E200" s="50" t="s">
+      <c r="E200" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F200" s="50" t="s">
+      <c r="F200" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G200" s="50" t="s">
+      <c r="G200" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H200" s="50" t="s">
+      <c r="H200" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I200" s="50" t="s">
+      <c r="I200" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J200" s="50" t="s">
+      <c r="J200" s="49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
-      <c r="A201" s="51"/>
-      <c r="B201" s="51"/>
-      <c r="C201" s="51"/>
-      <c r="D201" s="53"/>
-      <c r="E201" s="51"/>
-      <c r="F201" s="51"/>
-      <c r="G201" s="51"/>
-      <c r="H201" s="51"/>
-      <c r="I201" s="51"/>
-      <c r="J201" s="51"/>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="L200" t="s">
+        <v>230</v>
+      </c>
+      <c r="M200" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N200" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="O200" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15">
+      <c r="A201" s="50"/>
+      <c r="B201" s="50"/>
+      <c r="C201" s="50"/>
+      <c r="D201" s="52"/>
+      <c r="E201" s="50"/>
+      <c r="F201" s="50"/>
+      <c r="G201" s="50"/>
+      <c r="H201" s="50"/>
+      <c r="I201" s="50"/>
+      <c r="J201" s="50"/>
+      <c r="L201" s="105"/>
+      <c r="M201" s="50"/>
+      <c r="N201" s="52"/>
+      <c r="O201" s="50"/>
+    </row>
+    <row r="202" spans="1:15">
       <c r="A202" s="12" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
       <c r="D202" s="12" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E202" s="12"/>
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
       <c r="H202" s="29"/>
       <c r="I202" s="12" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="J202" s="12"/>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="L202" s="105"/>
+      <c r="M202" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="N202" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="O202" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15">
       <c r="A203" s="12" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
       <c r="D203" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F203" s="12"/>
       <c r="G203" s="12" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H203" s="29"/>
       <c r="I203" s="12"/>
       <c r="J203" s="12"/>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="L203" s="105"/>
+      <c r="M203" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="N203" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O203" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15">
       <c r="A204" s="12" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
       <c r="D204" s="12" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
@@ -5644,15 +6447,23 @@
       <c r="H204" s="29"/>
       <c r="I204" s="12"/>
       <c r="J204" s="12"/>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="L204" s="105"/>
+      <c r="M204" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="N204" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="O204" s="12"/>
+    </row>
+    <row r="205" spans="1:15">
       <c r="A205" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
       <c r="D205" s="12" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
@@ -5662,261 +6473,92 @@
         <v>0</v>
       </c>
       <c r="J205" s="12"/>
+      <c r="L205" s="105"/>
+      <c r="M205" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="N205" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="O205" s="12">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="307">
-    <mergeCell ref="F198:J198"/>
-    <mergeCell ref="F199:J199"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="G200:G201"/>
-    <mergeCell ref="H200:H201"/>
-    <mergeCell ref="I200:I201"/>
-    <mergeCell ref="J200:J201"/>
-    <mergeCell ref="A193:E193"/>
-    <mergeCell ref="F193:J193"/>
-    <mergeCell ref="B194:E194"/>
-    <mergeCell ref="G194:J194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="G195:J195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="C196:J196"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="C197:J197"/>
-    <mergeCell ref="F184:J184"/>
-    <mergeCell ref="F185:J185"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="D186:D187"/>
-    <mergeCell ref="E186:E187"/>
-    <mergeCell ref="F186:F187"/>
-    <mergeCell ref="G186:G187"/>
-    <mergeCell ref="H186:H187"/>
-    <mergeCell ref="I186:I187"/>
-    <mergeCell ref="J186:J187"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="F179:J179"/>
-    <mergeCell ref="B180:E180"/>
-    <mergeCell ref="G180:J180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="G181:J181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="C182:J182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="C183:J183"/>
-    <mergeCell ref="F169:J169"/>
-    <mergeCell ref="F170:J170"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="G171:G172"/>
-    <mergeCell ref="H171:H172"/>
-    <mergeCell ref="I171:I172"/>
-    <mergeCell ref="J171:J172"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="F164:J164"/>
-    <mergeCell ref="B165:E165"/>
-    <mergeCell ref="G165:J165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="G166:J166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="C167:J167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="C168:J168"/>
-    <mergeCell ref="F156:J156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="J157:J158"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="C153:J153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:J154"/>
-    <mergeCell ref="F155:J155"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="F150:J150"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="G151:J151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="G152:J152"/>
-    <mergeCell ref="F141:J141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="J142:J143"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="C138:J138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="C139:J139"/>
-    <mergeCell ref="F140:J140"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="F135:J135"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="G136:J136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="G137:J137"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="I126:I127"/>
-    <mergeCell ref="J126:J127"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="C122:J122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C123:J123"/>
-    <mergeCell ref="F124:J124"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="F119:J119"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="G120:J120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="G121:J121"/>
-    <mergeCell ref="F110:J110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:J107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:J108"/>
-    <mergeCell ref="F109:J109"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="F104:J104"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="G105:J105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="G106:J106"/>
-    <mergeCell ref="F92:J92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:J90"/>
-    <mergeCell ref="F91:J91"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="G87:J87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="G88:J88"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A11:J12"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:J8"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
+  <mergeCells count="349">
+    <mergeCell ref="M200:M201"/>
+    <mergeCell ref="N200:N201"/>
+    <mergeCell ref="O200:O201"/>
+    <mergeCell ref="L187:L190"/>
+    <mergeCell ref="L201:L205"/>
+    <mergeCell ref="L143:L147"/>
+    <mergeCell ref="M157:M158"/>
+    <mergeCell ref="N157:N158"/>
+    <mergeCell ref="O157:O158"/>
+    <mergeCell ref="M171:M172"/>
+    <mergeCell ref="N171:N172"/>
+    <mergeCell ref="O171:O172"/>
+    <mergeCell ref="M186:M187"/>
+    <mergeCell ref="N186:N187"/>
+    <mergeCell ref="O186:O187"/>
+    <mergeCell ref="M142:M143"/>
+    <mergeCell ref="N142:N143"/>
+    <mergeCell ref="O142:O143"/>
+    <mergeCell ref="M126:M127"/>
+    <mergeCell ref="O126:O127"/>
+    <mergeCell ref="N126:N127"/>
+    <mergeCell ref="O111:O112"/>
+    <mergeCell ref="O93:O94"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="L127:L132"/>
+    <mergeCell ref="M111:M112"/>
+    <mergeCell ref="N111:N112"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="N93:N94"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="L38:L50"/>
+    <mergeCell ref="L76:L83"/>
+    <mergeCell ref="L94:L101"/>
+    <mergeCell ref="L61:L65"/>
+    <mergeCell ref="L112:L116"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="B31:E31"/>
     <mergeCell ref="A28:J29"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="D16:E16"/>
@@ -5941,37 +6583,258 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A11:J12"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:J8"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:J90"/>
+    <mergeCell ref="F91:J91"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="G87:J87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="G88:J88"/>
+    <mergeCell ref="F92:J92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:J107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:J108"/>
+    <mergeCell ref="F109:J109"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="F104:J104"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="G105:J105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="G106:J106"/>
+    <mergeCell ref="F110:J110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:J122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:J123"/>
+    <mergeCell ref="F124:J124"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="F119:J119"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="G120:J120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="G121:J121"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="J126:J127"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:J138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:J139"/>
+    <mergeCell ref="F140:J140"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="F135:J135"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="G136:J136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="G137:J137"/>
+    <mergeCell ref="F141:J141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="J142:J143"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="C153:J153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:J154"/>
+    <mergeCell ref="F155:J155"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="F150:J150"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="G151:J151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="G152:J152"/>
+    <mergeCell ref="F156:J156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="J157:J158"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="F164:J164"/>
+    <mergeCell ref="B165:E165"/>
+    <mergeCell ref="G165:J165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="G166:J166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="C167:J167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="C168:J168"/>
+    <mergeCell ref="F169:J169"/>
+    <mergeCell ref="F170:J170"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="H171:H172"/>
+    <mergeCell ref="I171:I172"/>
+    <mergeCell ref="J171:J172"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="F179:J179"/>
+    <mergeCell ref="B180:E180"/>
+    <mergeCell ref="G180:J180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="G181:J181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="C182:J182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="C183:J183"/>
+    <mergeCell ref="F184:J184"/>
+    <mergeCell ref="F185:J185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="D186:D187"/>
+    <mergeCell ref="E186:E187"/>
+    <mergeCell ref="F186:F187"/>
+    <mergeCell ref="G186:G187"/>
+    <mergeCell ref="H186:H187"/>
+    <mergeCell ref="I186:I187"/>
+    <mergeCell ref="J186:J187"/>
+    <mergeCell ref="A193:E193"/>
+    <mergeCell ref="F193:J193"/>
+    <mergeCell ref="B194:E194"/>
+    <mergeCell ref="G194:J194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="G195:J195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="C196:J196"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="C197:J197"/>
+    <mergeCell ref="F198:J198"/>
+    <mergeCell ref="F199:J199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="G200:G201"/>
+    <mergeCell ref="H200:H201"/>
+    <mergeCell ref="I200:I201"/>
+    <mergeCell ref="J200:J201"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5997,1194 +6860,1253 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="91"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="94"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
     </row>
     <row r="3" spans="1:10" ht="6" customHeight="1"/>
     <row r="4" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" s="32" customFormat="1" ht="13.2">
       <c r="A6" s="33"/>
     </row>
     <row r="7" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
     </row>
     <row r="9" spans="1:10" s="32" customFormat="1" ht="13.2">
       <c r="A9" s="33"/>
     </row>
     <row r="10" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
     </row>
     <row r="12" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
     </row>
     <row r="13" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
     </row>
     <row r="14" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
     </row>
     <row r="15" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
     </row>
     <row r="16" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
     </row>
     <row r="17" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
     </row>
     <row r="18" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
     </row>
     <row r="19" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
     </row>
     <row r="20" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
     </row>
     <row r="21" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
     </row>
     <row r="22" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
     </row>
     <row r="23" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A23" s="86" t="s">
+      <c r="A23" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
     </row>
     <row r="24" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A24" s="86" t="s">
+      <c r="A24" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
     </row>
     <row r="25" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
     </row>
     <row r="26" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
     </row>
     <row r="27" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
     </row>
     <row r="28" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A28" s="86" t="s">
+      <c r="A28" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
     </row>
     <row r="29" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
     </row>
     <row r="30" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A30" s="86" t="s">
+      <c r="A30" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
     </row>
     <row r="31" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
     </row>
     <row r="32" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
     </row>
     <row r="33" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A33" s="86" t="s">
+      <c r="A33" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
     </row>
     <row r="34" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A34" s="86" t="s">
+      <c r="A34" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
     </row>
     <row r="35" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
     </row>
     <row r="36" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A36" s="86" t="s">
+      <c r="A36" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
     </row>
     <row r="37" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A37" s="86" t="s">
+      <c r="A37" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="86"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
     </row>
     <row r="38" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A38" s="86" t="s">
+      <c r="A38" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
     </row>
     <row r="39" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A39" s="86" t="s">
+      <c r="A39" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
     </row>
     <row r="40" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A40" s="86" t="s">
+      <c r="A40" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="86"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
     </row>
     <row r="41" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A41" s="86" t="s">
+      <c r="A41" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="86"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
     </row>
     <row r="42" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A42" s="86" t="s">
+      <c r="A42" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="86"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
     </row>
     <row r="43" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A43" s="86" t="s">
+      <c r="A43" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="94"/>
     </row>
     <row r="44" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A44" s="86" t="s">
+      <c r="A44" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
     </row>
     <row r="45" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A45" s="86" t="s">
+      <c r="A45" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="94"/>
+      <c r="J45" s="94"/>
     </row>
     <row r="46" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A46" s="86" t="s">
+      <c r="A46" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="86"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="94"/>
     </row>
     <row r="47" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="86"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
     </row>
     <row r="48" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A48" s="86" t="s">
+      <c r="A48" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="86"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="86"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
     </row>
     <row r="49" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A49" s="86" t="s">
+      <c r="A49" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="86"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="94"/>
     </row>
     <row r="50" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A50" s="86" t="s">
+      <c r="A50" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="86"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="86"/>
-      <c r="J50" s="86"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
     </row>
     <row r="51" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A51" s="86" t="s">
+      <c r="A51" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="86"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="86"/>
-      <c r="I51" s="86"/>
-      <c r="J51" s="86"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="94"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="94"/>
     </row>
     <row r="52" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A52" s="86" t="s">
+      <c r="A52" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="86"/>
-      <c r="H52" s="86"/>
-      <c r="I52" s="86"/>
-      <c r="J52" s="86"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="94"/>
+      <c r="I52" s="94"/>
+      <c r="J52" s="94"/>
     </row>
     <row r="53" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A53" s="86" t="s">
+      <c r="A53" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="86"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="94"/>
+      <c r="F53" s="94"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="94"/>
+      <c r="I53" s="94"/>
+      <c r="J53" s="94"/>
     </row>
     <row r="54" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A54" s="86" t="s">
+      <c r="A54" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="86"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="86"/>
-      <c r="I54" s="86"/>
-      <c r="J54" s="86"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="94"/>
+      <c r="J54" s="94"/>
     </row>
     <row r="55" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A55" s="86" t="s">
+      <c r="A55" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="86"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="94"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="94"/>
+      <c r="G55" s="94"/>
+      <c r="H55" s="94"/>
+      <c r="I55" s="94"/>
+      <c r="J55" s="94"/>
     </row>
     <row r="56" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A56" s="86" t="s">
+      <c r="A56" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="86"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="86"/>
-      <c r="I56" s="86"/>
-      <c r="J56" s="86"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="94"/>
     </row>
     <row r="57" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A57" s="86" t="s">
+      <c r="A57" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="86"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="86"/>
-      <c r="H57" s="86"/>
-      <c r="I57" s="86"/>
-      <c r="J57" s="86"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="94"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="94"/>
     </row>
     <row r="58" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A58" s="86" t="s">
+      <c r="A58" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="86"/>
-      <c r="I58" s="86"/>
-      <c r="J58" s="86"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="94"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="94"/>
+      <c r="I58" s="94"/>
+      <c r="J58" s="94"/>
     </row>
     <row r="59" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A59" s="86" t="s">
+      <c r="A59" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="86"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="86"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="86"/>
-      <c r="I59" s="86"/>
-      <c r="J59" s="86"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="94"/>
+      <c r="E59" s="94"/>
+      <c r="F59" s="94"/>
+      <c r="G59" s="94"/>
+      <c r="H59" s="94"/>
+      <c r="I59" s="94"/>
+      <c r="J59" s="94"/>
     </row>
     <row r="60" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A60" s="86" t="s">
+      <c r="A60" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="86"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="86"/>
-      <c r="E60" s="86"/>
-      <c r="F60" s="86"/>
-      <c r="G60" s="86"/>
-      <c r="H60" s="86"/>
-      <c r="I60" s="86"/>
-      <c r="J60" s="86"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="94"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="94"/>
+      <c r="G60" s="94"/>
+      <c r="H60" s="94"/>
+      <c r="I60" s="94"/>
+      <c r="J60" s="94"/>
     </row>
     <row r="61" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A61" s="86" t="s">
+      <c r="A61" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="86"/>
-      <c r="I61" s="86"/>
-      <c r="J61" s="86"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="94"/>
+      <c r="F61" s="94"/>
+      <c r="G61" s="94"/>
+      <c r="H61" s="94"/>
+      <c r="I61" s="94"/>
+      <c r="J61" s="94"/>
     </row>
     <row r="62" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A62" s="86" t="s">
+      <c r="A62" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="86"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="86"/>
-      <c r="I62" s="86"/>
-      <c r="J62" s="86"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="94"/>
+      <c r="F62" s="94"/>
+      <c r="G62" s="94"/>
+      <c r="H62" s="94"/>
+      <c r="I62" s="94"/>
+      <c r="J62" s="94"/>
     </row>
     <row r="63" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A63" s="86" t="s">
+      <c r="A63" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="86"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="86"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="86"/>
-      <c r="H63" s="86"/>
-      <c r="I63" s="86"/>
-      <c r="J63" s="86"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="94"/>
+      <c r="F63" s="94"/>
+      <c r="G63" s="94"/>
+      <c r="H63" s="94"/>
+      <c r="I63" s="94"/>
+      <c r="J63" s="94"/>
     </row>
     <row r="64" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A64" s="86" t="s">
+      <c r="A64" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="B64" s="86"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="86"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="86"/>
-      <c r="H64" s="86"/>
-      <c r="I64" s="86"/>
-      <c r="J64" s="86"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="94"/>
+      <c r="E64" s="94"/>
+      <c r="F64" s="94"/>
+      <c r="G64" s="94"/>
+      <c r="H64" s="94"/>
+      <c r="I64" s="94"/>
+      <c r="J64" s="94"/>
     </row>
     <row r="65" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A65" s="86" t="s">
+      <c r="A65" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="B65" s="86"/>
-      <c r="C65" s="86"/>
-      <c r="D65" s="86"/>
-      <c r="E65" s="86"/>
-      <c r="F65" s="86"/>
-      <c r="G65" s="86"/>
-      <c r="H65" s="86"/>
-      <c r="I65" s="86"/>
-      <c r="J65" s="86"/>
+      <c r="B65" s="94"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="94"/>
+      <c r="E65" s="94"/>
+      <c r="F65" s="94"/>
+      <c r="G65" s="94"/>
+      <c r="H65" s="94"/>
+      <c r="I65" s="94"/>
+      <c r="J65" s="94"/>
     </row>
     <row r="66" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A66" s="86" t="s">
+      <c r="A66" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="B66" s="86"/>
-      <c r="C66" s="86"/>
-      <c r="D66" s="86"/>
-      <c r="E66" s="86"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="86"/>
-      <c r="H66" s="86"/>
-      <c r="I66" s="86"/>
-      <c r="J66" s="86"/>
+      <c r="B66" s="94"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="94"/>
+      <c r="E66" s="94"/>
+      <c r="F66" s="94"/>
+      <c r="G66" s="94"/>
+      <c r="H66" s="94"/>
+      <c r="I66" s="94"/>
+      <c r="J66" s="94"/>
     </row>
     <row r="67" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A67" s="86" t="s">
+      <c r="A67" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="86"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="86"/>
-      <c r="E67" s="86"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="86"/>
-      <c r="H67" s="86"/>
-      <c r="I67" s="86"/>
-      <c r="J67" s="86"/>
+      <c r="B67" s="94"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="94"/>
+      <c r="F67" s="94"/>
+      <c r="G67" s="94"/>
+      <c r="H67" s="94"/>
+      <c r="I67" s="94"/>
+      <c r="J67" s="94"/>
     </row>
     <row r="68" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A68" s="86" t="s">
+      <c r="A68" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="B68" s="86"/>
-      <c r="C68" s="86"/>
-      <c r="D68" s="86"/>
-      <c r="E68" s="86"/>
-      <c r="F68" s="86"/>
-      <c r="G68" s="86"/>
-      <c r="H68" s="86"/>
-      <c r="I68" s="86"/>
-      <c r="J68" s="86"/>
+      <c r="B68" s="94"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="94"/>
+      <c r="F68" s="94"/>
+      <c r="G68" s="94"/>
+      <c r="H68" s="94"/>
+      <c r="I68" s="94"/>
+      <c r="J68" s="94"/>
     </row>
     <row r="69" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A69" s="86" t="s">
+      <c r="A69" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="86"/>
-      <c r="C69" s="86"/>
-      <c r="D69" s="86"/>
-      <c r="E69" s="86"/>
-      <c r="F69" s="86"/>
-      <c r="G69" s="86"/>
-      <c r="H69" s="86"/>
-      <c r="I69" s="86"/>
-      <c r="J69" s="86"/>
+      <c r="B69" s="94"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="94"/>
+      <c r="E69" s="94"/>
+      <c r="F69" s="94"/>
+      <c r="G69" s="94"/>
+      <c r="H69" s="94"/>
+      <c r="I69" s="94"/>
+      <c r="J69" s="94"/>
     </row>
     <row r="70" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A70" s="86" t="s">
+      <c r="A70" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="B70" s="86"/>
-      <c r="C70" s="86"/>
-      <c r="D70" s="86"/>
-      <c r="E70" s="86"/>
-      <c r="F70" s="86"/>
-      <c r="G70" s="86"/>
-      <c r="H70" s="86"/>
-      <c r="I70" s="86"/>
-      <c r="J70" s="86"/>
+      <c r="B70" s="94"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="94"/>
+      <c r="E70" s="94"/>
+      <c r="F70" s="94"/>
+      <c r="G70" s="94"/>
+      <c r="H70" s="94"/>
+      <c r="I70" s="94"/>
+      <c r="J70" s="94"/>
     </row>
     <row r="71" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A71" s="86" t="s">
+      <c r="A71" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="B71" s="86"/>
-      <c r="C71" s="86"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="86"/>
-      <c r="H71" s="86"/>
-      <c r="I71" s="86"/>
-      <c r="J71" s="86"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="94"/>
+      <c r="H71" s="94"/>
+      <c r="I71" s="94"/>
+      <c r="J71" s="94"/>
     </row>
     <row r="72" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A72" s="86" t="s">
+      <c r="A72" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="B72" s="86"/>
-      <c r="C72" s="86"/>
-      <c r="D72" s="86"/>
-      <c r="E72" s="86"/>
-      <c r="F72" s="86"/>
-      <c r="G72" s="86"/>
-      <c r="H72" s="86"/>
-      <c r="I72" s="86"/>
-      <c r="J72" s="86"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="94"/>
+      <c r="H72" s="94"/>
+      <c r="I72" s="94"/>
+      <c r="J72" s="94"/>
     </row>
     <row r="73" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A73" s="86" t="s">
+      <c r="A73" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="B73" s="86"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="86"/>
-      <c r="E73" s="86"/>
-      <c r="F73" s="86"/>
-      <c r="G73" s="86"/>
-      <c r="H73" s="86"/>
-      <c r="I73" s="86"/>
-      <c r="J73" s="86"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="94"/>
     </row>
     <row r="74" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A74" s="86" t="s">
+      <c r="A74" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="B74" s="86"/>
-      <c r="C74" s="86"/>
-      <c r="D74" s="86"/>
-      <c r="E74" s="86"/>
-      <c r="F74" s="86"/>
-      <c r="G74" s="86"/>
-      <c r="H74" s="86"/>
-      <c r="I74" s="86"/>
-      <c r="J74" s="86"/>
+      <c r="B74" s="94"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="94"/>
+      <c r="E74" s="94"/>
+      <c r="F74" s="94"/>
+      <c r="G74" s="94"/>
+      <c r="H74" s="94"/>
+      <c r="I74" s="94"/>
+      <c r="J74" s="94"/>
     </row>
     <row r="75" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A75" s="86" t="s">
+      <c r="A75" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="B75" s="86"/>
-      <c r="C75" s="86"/>
-      <c r="D75" s="86"/>
-      <c r="E75" s="86"/>
-      <c r="F75" s="86"/>
-      <c r="G75" s="86"/>
-      <c r="H75" s="86"/>
-      <c r="I75" s="86"/>
-      <c r="J75" s="86"/>
+      <c r="B75" s="94"/>
+      <c r="C75" s="94"/>
+      <c r="D75" s="94"/>
+      <c r="E75" s="94"/>
+      <c r="F75" s="94"/>
+      <c r="G75" s="94"/>
+      <c r="H75" s="94"/>
+      <c r="I75" s="94"/>
+      <c r="J75" s="94"/>
     </row>
     <row r="76" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A76" s="86" t="s">
+      <c r="A76" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="B76" s="86"/>
-      <c r="C76" s="86"/>
-      <c r="D76" s="86"/>
-      <c r="E76" s="86"/>
-      <c r="F76" s="86"/>
-      <c r="G76" s="86"/>
-      <c r="H76" s="86"/>
-      <c r="I76" s="86"/>
-      <c r="J76" s="86"/>
+      <c r="B76" s="94"/>
+      <c r="C76" s="94"/>
+      <c r="D76" s="94"/>
+      <c r="E76" s="94"/>
+      <c r="F76" s="94"/>
+      <c r="G76" s="94"/>
+      <c r="H76" s="94"/>
+      <c r="I76" s="94"/>
+      <c r="J76" s="94"/>
     </row>
     <row r="77" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A77" s="86" t="s">
+      <c r="A77" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="B77" s="86"/>
-      <c r="C77" s="86"/>
-      <c r="D77" s="86"/>
-      <c r="E77" s="86"/>
-      <c r="F77" s="86"/>
-      <c r="G77" s="86"/>
-      <c r="H77" s="86"/>
-      <c r="I77" s="86"/>
-      <c r="J77" s="86"/>
+      <c r="B77" s="94"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="94"/>
+      <c r="F77" s="94"/>
+      <c r="G77" s="94"/>
+      <c r="H77" s="94"/>
+      <c r="I77" s="94"/>
+      <c r="J77" s="94"/>
     </row>
     <row r="78" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A78" s="86" t="s">
+      <c r="A78" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="B78" s="86"/>
-      <c r="C78" s="86"/>
-      <c r="D78" s="86"/>
-      <c r="E78" s="86"/>
-      <c r="F78" s="86"/>
-      <c r="G78" s="86"/>
-      <c r="H78" s="86"/>
-      <c r="I78" s="86"/>
-      <c r="J78" s="86"/>
+      <c r="B78" s="94"/>
+      <c r="C78" s="94"/>
+      <c r="D78" s="94"/>
+      <c r="E78" s="94"/>
+      <c r="F78" s="94"/>
+      <c r="G78" s="94"/>
+      <c r="H78" s="94"/>
+      <c r="I78" s="94"/>
+      <c r="J78" s="94"/>
     </row>
     <row r="79" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A79" s="86" t="s">
+      <c r="A79" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="B79" s="86"/>
-      <c r="C79" s="86"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="86"/>
-      <c r="F79" s="86"/>
-      <c r="G79" s="86"/>
-      <c r="H79" s="86"/>
-      <c r="I79" s="86"/>
-      <c r="J79" s="86"/>
+      <c r="B79" s="94"/>
+      <c r="C79" s="94"/>
+      <c r="D79" s="94"/>
+      <c r="E79" s="94"/>
+      <c r="F79" s="94"/>
+      <c r="G79" s="94"/>
+      <c r="H79" s="94"/>
+      <c r="I79" s="94"/>
+      <c r="J79" s="94"/>
     </row>
     <row r="80" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A80" s="86" t="s">
+      <c r="A80" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="B80" s="86"/>
-      <c r="C80" s="86"/>
-      <c r="D80" s="86"/>
-      <c r="E80" s="86"/>
-      <c r="F80" s="86"/>
-      <c r="G80" s="86"/>
-      <c r="H80" s="86"/>
-      <c r="I80" s="86"/>
-      <c r="J80" s="86"/>
+      <c r="B80" s="94"/>
+      <c r="C80" s="94"/>
+      <c r="D80" s="94"/>
+      <c r="E80" s="94"/>
+      <c r="F80" s="94"/>
+      <c r="G80" s="94"/>
+      <c r="H80" s="94"/>
+      <c r="I80" s="94"/>
+      <c r="J80" s="94"/>
     </row>
     <row r="81" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A81" s="86" t="s">
+      <c r="A81" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="B81" s="86"/>
-      <c r="C81" s="86"/>
-      <c r="D81" s="86"/>
-      <c r="E81" s="86"/>
-      <c r="F81" s="86"/>
-      <c r="G81" s="86"/>
-      <c r="H81" s="86"/>
-      <c r="I81" s="86"/>
-      <c r="J81" s="86"/>
+      <c r="B81" s="94"/>
+      <c r="C81" s="94"/>
+      <c r="D81" s="94"/>
+      <c r="E81" s="94"/>
+      <c r="F81" s="94"/>
+      <c r="G81" s="94"/>
+      <c r="H81" s="94"/>
+      <c r="I81" s="94"/>
+      <c r="J81" s="94"/>
     </row>
     <row r="82" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A82" s="86" t="s">
+      <c r="A82" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="B82" s="86"/>
-      <c r="C82" s="86"/>
-      <c r="D82" s="86"/>
-      <c r="E82" s="86"/>
-      <c r="F82" s="86"/>
-      <c r="G82" s="86"/>
-      <c r="H82" s="86"/>
-      <c r="I82" s="86"/>
-      <c r="J82" s="86"/>
+      <c r="B82" s="94"/>
+      <c r="C82" s="94"/>
+      <c r="D82" s="94"/>
+      <c r="E82" s="94"/>
+      <c r="F82" s="94"/>
+      <c r="G82" s="94"/>
+      <c r="H82" s="94"/>
+      <c r="I82" s="94"/>
+      <c r="J82" s="94"/>
     </row>
     <row r="83" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A83" s="86" t="s">
+      <c r="A83" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="B83" s="86"/>
-      <c r="C83" s="86"/>
-      <c r="D83" s="86"/>
-      <c r="E83" s="86"/>
-      <c r="F83" s="86"/>
-      <c r="G83" s="86"/>
-      <c r="H83" s="86"/>
-      <c r="I83" s="86"/>
-      <c r="J83" s="86"/>
+      <c r="B83" s="94"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="94"/>
+      <c r="F83" s="94"/>
+      <c r="G83" s="94"/>
+      <c r="H83" s="94"/>
+      <c r="I83" s="94"/>
+      <c r="J83" s="94"/>
     </row>
     <row r="84" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A84" s="86" t="s">
+      <c r="A84" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="B84" s="86"/>
-      <c r="C84" s="86"/>
-      <c r="D84" s="86"/>
-      <c r="E84" s="86"/>
-      <c r="F84" s="86"/>
-      <c r="G84" s="86"/>
-      <c r="H84" s="86"/>
-      <c r="I84" s="86"/>
-      <c r="J84" s="86"/>
+      <c r="B84" s="94"/>
+      <c r="C84" s="94"/>
+      <c r="D84" s="94"/>
+      <c r="E84" s="94"/>
+      <c r="F84" s="94"/>
+      <c r="G84" s="94"/>
+      <c r="H84" s="94"/>
+      <c r="I84" s="94"/>
+      <c r="J84" s="94"/>
     </row>
     <row r="85" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A85" s="86" t="s">
+      <c r="A85" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="B85" s="86"/>
-      <c r="C85" s="86"/>
-      <c r="D85" s="86"/>
-      <c r="E85" s="86"/>
-      <c r="F85" s="86"/>
-      <c r="G85" s="86"/>
-      <c r="H85" s="86"/>
-      <c r="I85" s="86"/>
-      <c r="J85" s="86"/>
+      <c r="B85" s="94"/>
+      <c r="C85" s="94"/>
+      <c r="D85" s="94"/>
+      <c r="E85" s="94"/>
+      <c r="F85" s="94"/>
+      <c r="G85" s="94"/>
+      <c r="H85" s="94"/>
+      <c r="I85" s="94"/>
+      <c r="J85" s="94"/>
     </row>
     <row r="86" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A86" s="86" t="s">
+      <c r="A86" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="B86" s="86"/>
-      <c r="C86" s="86"/>
-      <c r="D86" s="86"/>
-      <c r="E86" s="86"/>
-      <c r="F86" s="86"/>
-      <c r="G86" s="86"/>
-      <c r="H86" s="86"/>
-      <c r="I86" s="86"/>
-      <c r="J86" s="86"/>
+      <c r="B86" s="94"/>
+      <c r="C86" s="94"/>
+      <c r="D86" s="94"/>
+      <c r="E86" s="94"/>
+      <c r="F86" s="94"/>
+      <c r="G86" s="94"/>
+      <c r="H86" s="94"/>
+      <c r="I86" s="94"/>
+      <c r="J86" s="94"/>
     </row>
     <row r="87" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A87" s="86" t="s">
+      <c r="A87" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="B87" s="86"/>
-      <c r="C87" s="86"/>
-      <c r="D87" s="86"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="86"/>
-      <c r="G87" s="86"/>
-      <c r="H87" s="86"/>
-      <c r="I87" s="86"/>
-      <c r="J87" s="86"/>
+      <c r="B87" s="94"/>
+      <c r="C87" s="94"/>
+      <c r="D87" s="94"/>
+      <c r="E87" s="94"/>
+      <c r="F87" s="94"/>
+      <c r="G87" s="94"/>
+      <c r="H87" s="94"/>
+      <c r="I87" s="94"/>
+      <c r="J87" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A83:J83"/>
+    <mergeCell ref="A84:J84"/>
+    <mergeCell ref="A85:J85"/>
+    <mergeCell ref="A86:J86"/>
+    <mergeCell ref="A87:J87"/>
+    <mergeCell ref="A82:J82"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="A80:J80"/>
+    <mergeCell ref="A81:J81"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:J33"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:J12"/>
@@ -7197,71 +8119,12 @@
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="A20:J20"/>
     <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A82:J82"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="A76:J76"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="A79:J79"/>
-    <mergeCell ref="A80:J80"/>
-    <mergeCell ref="A81:J81"/>
-    <mergeCell ref="A83:J83"/>
-    <mergeCell ref="A84:J84"/>
-    <mergeCell ref="A85:J85"/>
-    <mergeCell ref="A86:J86"/>
-    <mergeCell ref="A87:J87"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
